--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1094347.640771033</v>
+        <v>1089838.905063008</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7371539.748594786</v>
+        <v>7371539.748594783</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4497908.94028126</v>
+        <v>4497908.940281261</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>49.32015849748334</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>58.44215023562771</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.094542823061</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>298.7382239025283</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>58.43963351453694</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.843788712764109</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>153.0370636576713</v>
@@ -1587,7 +1587,7 @@
         <v>277.3344142389604</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>146.7447046725667</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>309.9246702465425</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.44215023562771</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>338.1666275277743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>157.6060795021602</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.20225288674682</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.843788712764109</v>
+        <v>6.843788712764116</v>
       </c>
       <c r="S16" t="n">
-        <v>153.0370636576713</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>149.3427080557264</v>
+        <v>237.1310885301926</v>
       </c>
       <c r="U16" t="n">
         <v>277.3344142389604</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>146.3990571872028</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>141.6599292653528</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>398.3261064128874</v>
       </c>
       <c r="H17" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.44215023562771</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.094542823061</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>28.28720108075906</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>121.1532917437015</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.20225288674682</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>6.843788712764109</v>
       </c>
       <c r="S19" t="n">
-        <v>153.0370636576713</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1310885301926</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.44215023562771</v>
+        <v>58.4421502356277</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.094542823061</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>164.9753013053183</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>355.8943596043054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.1224040825926</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>85.40382661541341</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.20225288674682</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>6.843788712764109</v>
       </c>
       <c r="S22" t="n">
-        <v>153.0370636576713</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1310885301926</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>281.4832599864852</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.44215023562771</v>
+        <v>58.4421502356277</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>102.1642061552736</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.93693937418126</v>
+        <v>60.93693937418125</v>
       </c>
       <c r="T24" t="n">
         <v>136.2135410023534</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>4.569015844488609</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.20225288674682</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.843788712764109</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>153.0370636576713</v>
+        <v>153.0370636576712</v>
       </c>
       <c r="T25" t="n">
         <v>237.1310885301926</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3344142389604</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>165.0697382785434</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>119.4191700713177</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.4421502356277</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.094542823061</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>145.452573611702</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>29.53395709901393</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>153.0370636576713</v>
+        <v>153.0370636576712</v>
       </c>
       <c r="T28" t="n">
         <v>237.1310885301926</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>88.7303819898427</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>398.3261064128874</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.44215023562772</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.094542823061</v>
       </c>
       <c r="U29" t="n">
         <v>255.6137950796671</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>111.3160396500198</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>167.5530636199333</v>
       </c>
     </row>
     <row r="30">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>92.24761532817847</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.20225288674682</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>153.0370636576713</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1310885301926</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>101.1448208304044</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3031,19 +3031,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>329.2621012001132</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3261064128874</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.4421502356277</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0945428230611</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>380.5365870550798</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>4.569015844488166</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.20225288674682</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>153.0370636576713</v>
+        <v>153.0370636576712</v>
       </c>
       <c r="T34" t="n">
         <v>237.1310885301926</v>
@@ -3252,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>77.19842095314372</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,10 +3271,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>329.2621012001132</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.44215023562772</v>
+        <v>58.4421502356277</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>347.0378984623033</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>19.64065959393413</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>54.23014880495865</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.843788712764123</v>
+        <v>6.843788712764109</v>
       </c>
       <c r="S37" t="n">
-        <v>153.0370636576713</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1310885301926</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>121.3633673556008</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3517,10 +3517,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3261064128874</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.4421502356277</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>309.9246702465434</v>
       </c>
     </row>
     <row r="39">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3902485574921957</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3678,10 +3678,10 @@
         <v>163.7109207868414</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>63.2443639174306</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1310885301926</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3344142389604</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3261064128874</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>274.71888335875</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.44215023562772</v>
+        <v>58.4421502356277</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0945428230611</v>
+        <v>210.094542823061</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>349.5493458226978</v>
+        <v>55.51556285939514</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.93693937418126</v>
+        <v>60.93693937418125</v>
       </c>
       <c r="T42" t="n">
         <v>136.2135410023534</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H43" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.20225288674682</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.843788712764123</v>
+        <v>6.843788712764102</v>
       </c>
       <c r="S43" t="n">
-        <v>153.0370636576713</v>
+        <v>28.88416358434816</v>
       </c>
       <c r="T43" t="n">
         <v>237.1310885301926</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3344142389604</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>259.3802708456702</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>40.98804963402431</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.44215023562772</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0945428230611</v>
+        <v>210.094542823061</v>
       </c>
       <c r="U44" t="n">
         <v>255.6137950796671</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>299.547603239846</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.93693937418126</v>
+        <v>60.93693937418125</v>
       </c>
       <c r="T45" t="n">
         <v>136.2135410023534</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4143,10 +4143,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.7109207868414</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.0370636576712</v>
       </c>
       <c r="T46" t="n">
         <v>237.1310885301926</v>
@@ -4194,16 +4194,16 @@
         <v>277.3344142389604</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>77.15960898178953</v>
+        <v>15.73250448013837</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1644.94361793857</v>
+        <v>467.4381036457259</v>
       </c>
       <c r="C11" t="n">
-        <v>1218.04288795187</v>
+        <v>467.4381036457259</v>
       </c>
       <c r="D11" t="n">
-        <v>794.7502671368707</v>
+        <v>467.4381036457259</v>
       </c>
       <c r="E11" t="n">
-        <v>744.9319252202208</v>
+        <v>467.4381036457259</v>
       </c>
       <c r="F11" t="n">
-        <v>319.8077434096211</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="G11" t="n">
-        <v>319.8077434096211</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H11" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I11" t="n">
-        <v>83.28385069007345</v>
+        <v>83.283850690073</v>
       </c>
       <c r="J11" t="n">
-        <v>219.6508459321592</v>
+        <v>219.6508459321587</v>
       </c>
       <c r="K11" t="n">
-        <v>432.2746315182164</v>
+        <v>432.2746315182158</v>
       </c>
       <c r="L11" t="n">
-        <v>702.0497753208674</v>
+        <v>702.0497753208666</v>
       </c>
       <c r="M11" t="n">
-        <v>1007.372886491277</v>
+        <v>1007.372886491276</v>
       </c>
       <c r="N11" t="n">
-        <v>1318.38618866747</v>
+        <v>1318.386188667469</v>
       </c>
       <c r="O11" t="n">
         <v>1609.900250660811</v>
       </c>
       <c r="P11" t="n">
-        <v>1853.094345516361</v>
+        <v>1853.09434551636</v>
       </c>
       <c r="Q11" t="n">
-        <v>2027.894911364331</v>
+        <v>2027.89491136433</v>
       </c>
       <c r="R11" t="n">
-        <v>2115.696091756306</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S11" t="n">
-        <v>2056.663616770823</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="T11" t="n">
-        <v>2056.663616770823</v>
+        <v>1844.446906848538</v>
       </c>
       <c r="U11" t="n">
-        <v>2056.663616770823</v>
+        <v>1586.251154242814</v>
       </c>
       <c r="V11" t="n">
-        <v>2056.663616770823</v>
+        <v>1284.495372523088</v>
       </c>
       <c r="W11" t="n">
-        <v>2056.663616770823</v>
+        <v>1284.495372523088</v>
       </c>
       <c r="X11" t="n">
-        <v>1644.94361793857</v>
+        <v>872.7753736908355</v>
       </c>
       <c r="Y11" t="n">
-        <v>1644.94361793857</v>
+        <v>467.4381036457259</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>178.3989382787443</v>
       </c>
       <c r="G12" t="n">
-        <v>85.40962142451073</v>
+        <v>85.40962142451072</v>
       </c>
       <c r="H12" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I12" t="n">
-        <v>62.22294035382064</v>
+        <v>62.22294035382063</v>
       </c>
       <c r="J12" t="n">
-        <v>140.3842883820539</v>
+        <v>418.3790865822424</v>
       </c>
       <c r="K12" t="n">
-        <v>286.6746405364526</v>
+        <v>564.6694387366409</v>
       </c>
       <c r="L12" t="n">
-        <v>490.9074852965163</v>
+        <v>768.9022834967046</v>
       </c>
       <c r="M12" t="n">
-        <v>904.9223710838305</v>
+        <v>1010.377871368737</v>
       </c>
       <c r="N12" t="n">
-        <v>1155.130504032607</v>
+        <v>1260.586004317513</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.411346834435</v>
+        <v>1485.866847119341</v>
       </c>
       <c r="P12" t="n">
-        <v>1558.077461028305</v>
+        <v>1663.532961313211</v>
       </c>
       <c r="Q12" t="n">
-        <v>1668.730683886594</v>
+        <v>1774.1861841715</v>
       </c>
       <c r="R12" t="n">
         <v>1815.524390138853</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>409.0676211879617</v>
+        <v>549.465032054879</v>
       </c>
       <c r="C13" t="n">
-        <v>409.0676211879617</v>
+        <v>377.492468933795</v>
       </c>
       <c r="D13" t="n">
-        <v>409.0676211879617</v>
+        <v>214.1756960605657</v>
       </c>
       <c r="E13" t="n">
-        <v>409.0676211879617</v>
+        <v>214.1756960605657</v>
       </c>
       <c r="F13" t="n">
-        <v>237.2058469625221</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="G13" t="n">
-        <v>237.2058469625221</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H13" t="n">
-        <v>101.3438546780927</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I13" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="J13" t="n">
         <v>161.6426112355429</v>
       </c>
       <c r="K13" t="n">
-        <v>242.5053834267006</v>
+        <v>489.7879925407227</v>
       </c>
       <c r="L13" t="n">
-        <v>350.8415838799289</v>
+        <v>974.513086585116</v>
       </c>
       <c r="M13" t="n">
-        <v>680.0553291423853</v>
+        <v>1089.267891096689</v>
       </c>
       <c r="N13" t="n">
-        <v>1191.39129169387</v>
+        <v>1202.570930806294</v>
       </c>
       <c r="O13" t="n">
-        <v>1670.446434848169</v>
+        <v>1519.07293747027</v>
       </c>
       <c r="P13" t="n">
-        <v>2066.829914879746</v>
+        <v>1915.456417501846</v>
       </c>
       <c r="Q13" t="n">
-        <v>2115.696091756306</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="R13" t="n">
-        <v>2108.783173864625</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S13" t="n">
-        <v>1954.200281281118</v>
+        <v>1961.113199172798</v>
       </c>
       <c r="T13" t="n">
-        <v>1714.673929230419</v>
+        <v>1721.586847122099</v>
       </c>
       <c r="U13" t="n">
-        <v>1434.538157271873</v>
+        <v>1441.451075163553</v>
       </c>
       <c r="V13" t="n">
-        <v>1152.826689879902</v>
+        <v>1293.224100746819</v>
       </c>
       <c r="W13" t="n">
-        <v>877.9742860524145</v>
+        <v>1018.371696919332</v>
       </c>
       <c r="X13" t="n">
-        <v>635.4103894982196</v>
+        <v>775.8078003651369</v>
       </c>
       <c r="Y13" t="n">
-        <v>409.0676211879617</v>
+        <v>549.465032054879</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>746.708473396321</v>
+        <v>1743.608394299568</v>
       </c>
       <c r="C14" t="n">
-        <v>319.8077434096211</v>
+        <v>1316.707664312868</v>
       </c>
       <c r="D14" t="n">
-        <v>319.8077434096211</v>
+        <v>893.4150434978683</v>
       </c>
       <c r="E14" t="n">
-        <v>319.8077434096211</v>
+        <v>467.4381036457259</v>
       </c>
       <c r="F14" t="n">
-        <v>319.8077434096211</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="G14" t="n">
-        <v>319.8077434096211</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="H14" t="n">
         <v>42.31392183512611</v>
       </c>
       <c r="I14" t="n">
-        <v>83.28385069007368</v>
+        <v>83.28385069007345</v>
       </c>
       <c r="J14" t="n">
-        <v>219.6508459321594</v>
+        <v>219.6508459321592</v>
       </c>
       <c r="K14" t="n">
-        <v>432.2746315182166</v>
+        <v>432.2746315182164</v>
       </c>
       <c r="L14" t="n">
-        <v>702.0497753208674</v>
+        <v>702.0497753208671</v>
       </c>
       <c r="M14" t="n">
         <v>1007.372886491277</v>
       </c>
       <c r="N14" t="n">
-        <v>1318.38618866747</v>
+        <v>1318.386188667469</v>
       </c>
       <c r="O14" t="n">
         <v>1609.900250660811</v>
@@ -5305,25 +5305,25 @@
         <v>2115.696091756306</v>
       </c>
       <c r="S14" t="n">
-        <v>2115.696091756306</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="T14" t="n">
-        <v>2115.696091756306</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="U14" t="n">
-        <v>1857.500339150581</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="V14" t="n">
-        <v>1500.010924276831</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="W14" t="n">
-        <v>1500.010924276831</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="X14" t="n">
-        <v>1088.290925444578</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="Y14" t="n">
-        <v>746.708473396321</v>
+        <v>2056.663616770823</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>42.31392183512611</v>
       </c>
       <c r="I15" t="n">
-        <v>62.22294035382064</v>
+        <v>85.68024619823248</v>
       </c>
       <c r="J15" t="n">
-        <v>140.3842883820539</v>
+        <v>163.8415942264658</v>
       </c>
       <c r="K15" t="n">
-        <v>564.6694387366407</v>
+        <v>310.1319463808643</v>
       </c>
       <c r="L15" t="n">
-        <v>768.9022834967044</v>
+        <v>514.364791140928</v>
       </c>
       <c r="M15" t="n">
-        <v>1010.377871368736</v>
+        <v>755.8403790129599</v>
       </c>
       <c r="N15" t="n">
-        <v>1260.586004317513</v>
+        <v>1006.048511961736</v>
       </c>
       <c r="O15" t="n">
-        <v>1485.866847119341</v>
+        <v>1231.329354763564</v>
       </c>
       <c r="P15" t="n">
-        <v>1663.532961313211</v>
+        <v>1408.995468957435</v>
       </c>
       <c r="Q15" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R15" t="n">
         <v>1815.524390138853</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>589.2882516602575</v>
+        <v>373.4845450594023</v>
       </c>
       <c r="C16" t="n">
-        <v>417.3156885391735</v>
+        <v>201.5119819383183</v>
       </c>
       <c r="D16" t="n">
-        <v>417.3156885391735</v>
+        <v>201.5119819383183</v>
       </c>
       <c r="E16" t="n">
-        <v>251.107482692027</v>
+        <v>201.5119819383183</v>
       </c>
       <c r="F16" t="n">
-        <v>251.107482692027</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="G16" t="n">
-        <v>251.107482692027</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="H16" t="n">
-        <v>115.2454904075976</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="I16" t="n">
         <v>42.31392183512611</v>
       </c>
       <c r="J16" t="n">
-        <v>83.72089458732205</v>
+        <v>83.72089458732204</v>
       </c>
       <c r="K16" t="n">
-        <v>164.5836667784797</v>
+        <v>305.5908267996847</v>
       </c>
       <c r="L16" t="n">
-        <v>649.308760822873</v>
+        <v>413.927027252913</v>
       </c>
       <c r="M16" t="n">
-        <v>764.0635653344463</v>
+        <v>528.6818317644863</v>
       </c>
       <c r="N16" t="n">
-        <v>1191.39129169387</v>
+        <v>1040.017794315971</v>
       </c>
       <c r="O16" t="n">
-        <v>1670.446434848169</v>
+        <v>1519.072937470271</v>
       </c>
       <c r="P16" t="n">
-        <v>2066.829914879746</v>
+        <v>1915.456417501847</v>
       </c>
       <c r="Q16" t="n">
         <v>2115.696091756306</v>
@@ -5463,25 +5463,25 @@
         <v>2108.783173864625</v>
       </c>
       <c r="S16" t="n">
-        <v>1954.200281281118</v>
+        <v>2108.783173864625</v>
       </c>
       <c r="T16" t="n">
-        <v>1803.349061022809</v>
+        <v>1869.256821813925</v>
       </c>
       <c r="U16" t="n">
-        <v>1523.213289064263</v>
+        <v>1589.121049855379</v>
       </c>
       <c r="V16" t="n">
-        <v>1523.213289064263</v>
+        <v>1307.409582463408</v>
       </c>
       <c r="W16" t="n">
-        <v>1248.360885236776</v>
+        <v>1032.557178635921</v>
       </c>
       <c r="X16" t="n">
-        <v>1005.796988682581</v>
+        <v>789.9932820817259</v>
       </c>
       <c r="Y16" t="n">
-        <v>779.4542203723231</v>
+        <v>563.6505137714679</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1719.304742056652</v>
+        <v>1012.878543724756</v>
       </c>
       <c r="C17" t="n">
-        <v>1571.426906514023</v>
+        <v>1012.878543724756</v>
       </c>
       <c r="D17" t="n">
-        <v>1148.134285699024</v>
+        <v>1012.878543724756</v>
       </c>
       <c r="E17" t="n">
-        <v>722.1573458468811</v>
+        <v>869.7877060829859</v>
       </c>
       <c r="F17" t="n">
-        <v>722.1573458468811</v>
+        <v>444.6635242723861</v>
       </c>
       <c r="G17" t="n">
-        <v>319.8077434096211</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="H17" t="n">
         <v>42.31392183512611</v>
@@ -5542,25 +5542,25 @@
         <v>2115.696091756306</v>
       </c>
       <c r="S17" t="n">
-        <v>2115.696091756306</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="T17" t="n">
-        <v>2115.696091756306</v>
+        <v>1844.446906848539</v>
       </c>
       <c r="U17" t="n">
-        <v>2115.696091756306</v>
+        <v>1844.446906848539</v>
       </c>
       <c r="V17" t="n">
-        <v>2115.696091756306</v>
+        <v>1844.446906848539</v>
       </c>
       <c r="W17" t="n">
-        <v>1719.304742056652</v>
+        <v>1844.446906848539</v>
       </c>
       <c r="X17" t="n">
-        <v>1719.304742056652</v>
+        <v>1432.726908016286</v>
       </c>
       <c r="Y17" t="n">
-        <v>1719.304742056652</v>
+        <v>1432.726908016286</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>42.31392183512611</v>
       </c>
       <c r="I18" t="n">
-        <v>62.22294035382064</v>
+        <v>85.68024619823248</v>
       </c>
       <c r="J18" t="n">
-        <v>140.3842883820539</v>
+        <v>312.9235862973363</v>
       </c>
       <c r="K18" t="n">
-        <v>286.6746405364526</v>
+        <v>459.2139384517349</v>
       </c>
       <c r="L18" t="n">
-        <v>768.9022834967044</v>
+        <v>663.4467832117986</v>
       </c>
       <c r="M18" t="n">
-        <v>1010.377871368736</v>
+        <v>904.9223710838305</v>
       </c>
       <c r="N18" t="n">
-        <v>1260.586004317513</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O18" t="n">
-        <v>1485.866847119341</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P18" t="n">
-        <v>1663.532961313211</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q18" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R18" t="n">
         <v>1815.524390138853</v>
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>409.0676211879617</v>
+        <v>373.4845450594023</v>
       </c>
       <c r="C19" t="n">
-        <v>237.0950580668777</v>
+        <v>373.4845450594023</v>
       </c>
       <c r="D19" t="n">
-        <v>237.0950580668777</v>
+        <v>373.4845450594023</v>
       </c>
       <c r="E19" t="n">
-        <v>70.88685221973122</v>
+        <v>373.4845450594023</v>
       </c>
       <c r="F19" t="n">
-        <v>42.31392183512611</v>
+        <v>373.4845450594023</v>
       </c>
       <c r="G19" t="n">
-        <v>42.31392183512611</v>
+        <v>251.107482692027</v>
       </c>
       <c r="H19" t="n">
-        <v>42.31392183512611</v>
+        <v>115.2454904075976</v>
       </c>
       <c r="I19" t="n">
         <v>42.31392183512611</v>
       </c>
       <c r="J19" t="n">
-        <v>83.72089458732205</v>
+        <v>161.6426112355429</v>
       </c>
       <c r="K19" t="n">
-        <v>305.5908267996845</v>
+        <v>489.7879925407227</v>
       </c>
       <c r="L19" t="n">
-        <v>413.9270272529128</v>
+        <v>974.513086585116</v>
       </c>
       <c r="M19" t="n">
-        <v>528.6818317644861</v>
+        <v>1089.267891096689</v>
       </c>
       <c r="N19" t="n">
-        <v>1040.017794315971</v>
+        <v>1202.570930806294</v>
       </c>
       <c r="O19" t="n">
         <v>1519.07293747027</v>
@@ -5700,25 +5700,25 @@
         <v>2108.783173864625</v>
       </c>
       <c r="S19" t="n">
-        <v>1954.200281281118</v>
+        <v>2108.783173864625</v>
       </c>
       <c r="T19" t="n">
-        <v>1714.673929230419</v>
+        <v>1869.256821813925</v>
       </c>
       <c r="U19" t="n">
-        <v>1434.538157271873</v>
+        <v>1589.121049855379</v>
       </c>
       <c r="V19" t="n">
-        <v>1152.826689879902</v>
+        <v>1307.409582463408</v>
       </c>
       <c r="W19" t="n">
-        <v>877.9742860524145</v>
+        <v>1032.557178635921</v>
       </c>
       <c r="X19" t="n">
-        <v>635.4103894982196</v>
+        <v>789.9932820817259</v>
       </c>
       <c r="Y19" t="n">
-        <v>409.0676211879617</v>
+        <v>563.6505137714679</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>469.214651821826</v>
+        <v>1320.315773484568</v>
       </c>
       <c r="C20" t="n">
-        <v>42.31392183512611</v>
+        <v>893.4150434978683</v>
       </c>
       <c r="D20" t="n">
-        <v>42.31392183512611</v>
+        <v>893.4150434978683</v>
       </c>
       <c r="E20" t="n">
-        <v>42.31392183512611</v>
+        <v>467.4381036457259</v>
       </c>
       <c r="F20" t="n">
         <v>42.31392183512611</v>
@@ -5752,10 +5752,10 @@
         <v>83.28385069007356</v>
       </c>
       <c r="J20" t="n">
-        <v>219.6508459321592</v>
+        <v>219.6508459321593</v>
       </c>
       <c r="K20" t="n">
-        <v>432.2746315182163</v>
+        <v>432.2746315182164</v>
       </c>
       <c r="L20" t="n">
         <v>702.0497753208672</v>
@@ -5764,7 +5764,7 @@
         <v>1007.372886491277</v>
       </c>
       <c r="N20" t="n">
-        <v>1318.38618866747</v>
+        <v>1318.386188667469</v>
       </c>
       <c r="O20" t="n">
         <v>1609.900250660811</v>
@@ -5782,22 +5782,22 @@
         <v>2056.663616770823</v>
       </c>
       <c r="T20" t="n">
-        <v>2056.663616770823</v>
+        <v>1844.446906848539</v>
       </c>
       <c r="U20" t="n">
-        <v>2056.663616770823</v>
+        <v>1677.805188358319</v>
       </c>
       <c r="V20" t="n">
-        <v>2056.663616770823</v>
+        <v>1320.315773484568</v>
       </c>
       <c r="W20" t="n">
-        <v>1660.27226707117</v>
+        <v>1320.315773484568</v>
       </c>
       <c r="X20" t="n">
-        <v>1248.552268238917</v>
+        <v>1320.315773484568</v>
       </c>
       <c r="Y20" t="n">
-        <v>889.0630161133561</v>
+        <v>1320.315773484568</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>42.31392183512611</v>
       </c>
       <c r="I21" t="n">
-        <v>62.22294035382064</v>
+        <v>85.68024619823248</v>
       </c>
       <c r="J21" t="n">
-        <v>140.3842883820539</v>
+        <v>312.9235862973363</v>
       </c>
       <c r="K21" t="n">
-        <v>286.6746405364526</v>
+        <v>459.2139384517349</v>
       </c>
       <c r="L21" t="n">
-        <v>490.9074852965163</v>
+        <v>663.4467832117986</v>
       </c>
       <c r="M21" t="n">
-        <v>1010.377871368736</v>
+        <v>904.9223710838305</v>
       </c>
       <c r="N21" t="n">
-        <v>1260.586004317513</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O21" t="n">
-        <v>1485.866847119341</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P21" t="n">
-        <v>1663.532961313211</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q21" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R21" t="n">
         <v>1815.524390138853</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>379.6510514075651</v>
+        <v>373.4845450594023</v>
       </c>
       <c r="C22" t="n">
-        <v>207.6784882864811</v>
+        <v>201.5119819383183</v>
       </c>
       <c r="D22" t="n">
-        <v>207.6784882864811</v>
+        <v>201.5119819383183</v>
       </c>
       <c r="E22" t="n">
-        <v>207.6784882864811</v>
+        <v>201.5119819383183</v>
       </c>
       <c r="F22" t="n">
-        <v>207.6784882864811</v>
+        <v>115.2454904075976</v>
       </c>
       <c r="G22" t="n">
-        <v>42.31392183512611</v>
+        <v>115.2454904075976</v>
       </c>
       <c r="H22" t="n">
-        <v>42.31392183512611</v>
+        <v>115.2454904075976</v>
       </c>
       <c r="I22" t="n">
         <v>42.31392183512611</v>
       </c>
       <c r="J22" t="n">
-        <v>83.72089458732205</v>
+        <v>161.6426112355429</v>
       </c>
       <c r="K22" t="n">
-        <v>164.5836667784797</v>
+        <v>242.5053834267006</v>
       </c>
       <c r="L22" t="n">
-        <v>649.308760822873</v>
+        <v>350.841583879929</v>
       </c>
       <c r="M22" t="n">
-        <v>1172.943543532559</v>
+        <v>874.4763665896146</v>
       </c>
       <c r="N22" t="n">
-        <v>1417.720118619174</v>
+        <v>1385.812329141099</v>
       </c>
       <c r="O22" t="n">
-        <v>1519.07293747027</v>
+        <v>1864.867472295399</v>
       </c>
       <c r="P22" t="n">
-        <v>1915.456417501847</v>
+        <v>1948.494747753668</v>
       </c>
       <c r="Q22" t="n">
         <v>2115.696091756306</v>
@@ -5937,25 +5937,25 @@
         <v>2108.783173864625</v>
       </c>
       <c r="S22" t="n">
-        <v>1954.200281281118</v>
+        <v>2108.783173864625</v>
       </c>
       <c r="T22" t="n">
-        <v>1714.673929230419</v>
+        <v>1869.256821813925</v>
       </c>
       <c r="U22" t="n">
-        <v>1434.538157271873</v>
+        <v>1589.121049855379</v>
       </c>
       <c r="V22" t="n">
-        <v>1152.826689879902</v>
+        <v>1307.409582463408</v>
       </c>
       <c r="W22" t="n">
-        <v>877.9742860524145</v>
+        <v>1032.557178635921</v>
       </c>
       <c r="X22" t="n">
-        <v>635.4103894982196</v>
+        <v>789.9932820817259</v>
       </c>
       <c r="Y22" t="n">
-        <v>409.0676211879617</v>
+        <v>563.6505137714679</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>744.9319252202208</v>
+        <v>1595.978034063463</v>
       </c>
       <c r="C23" t="n">
-        <v>744.9319252202208</v>
+        <v>1169.077304076763</v>
       </c>
       <c r="D23" t="n">
-        <v>744.9319252202208</v>
+        <v>745.7846832617636</v>
       </c>
       <c r="E23" t="n">
-        <v>744.9319252202208</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="F23" t="n">
         <v>319.8077434096211</v>
@@ -5983,22 +5983,22 @@
         <v>319.8077434096211</v>
       </c>
       <c r="H23" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512612</v>
       </c>
       <c r="I23" t="n">
-        <v>83.28385069007345</v>
+        <v>83.283850690073</v>
       </c>
       <c r="J23" t="n">
-        <v>219.6508459321591</v>
+        <v>219.6508459321587</v>
       </c>
       <c r="K23" t="n">
-        <v>432.2746315182162</v>
+        <v>432.274631518216</v>
       </c>
       <c r="L23" t="n">
-        <v>702.0497753208671</v>
+        <v>702.0497753208667</v>
       </c>
       <c r="M23" t="n">
-        <v>1007.372886491276</v>
+        <v>1007.372886491277</v>
       </c>
       <c r="N23" t="n">
         <v>1318.386188667469</v>
@@ -6007,13 +6007,13 @@
         <v>1609.900250660811</v>
       </c>
       <c r="P23" t="n">
-        <v>1853.09434551636</v>
+        <v>1853.094345516361</v>
       </c>
       <c r="Q23" t="n">
-        <v>2027.89491136433</v>
+        <v>2027.894911364331</v>
       </c>
       <c r="R23" t="n">
-        <v>2115.696091756305</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="S23" t="n">
         <v>2056.663616770823</v>
@@ -6022,19 +6022,19 @@
         <v>2056.663616770823</v>
       </c>
       <c r="U23" t="n">
-        <v>1798.467864165098</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="V23" t="n">
-        <v>1440.978449291347</v>
+        <v>1699.174201897073</v>
       </c>
       <c r="W23" t="n">
-        <v>1440.978449291347</v>
+        <v>1595.978034063463</v>
       </c>
       <c r="X23" t="n">
-        <v>1029.258450459095</v>
+        <v>1595.978034063463</v>
       </c>
       <c r="Y23" t="n">
-        <v>1029.258450459095</v>
+        <v>1595.978034063463</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>598.092564290113</v>
+        <v>598.0925642901132</v>
       </c>
       <c r="C24" t="n">
-        <v>480.5866608076178</v>
+        <v>480.5866608076179</v>
       </c>
       <c r="D24" t="n">
         <v>376.7467023229029</v>
@@ -6059,37 +6059,37 @@
         <v>178.3989382787443</v>
       </c>
       <c r="G24" t="n">
-        <v>85.40962142451073</v>
+        <v>85.40962142451075</v>
       </c>
       <c r="H24" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512612</v>
       </c>
       <c r="I24" t="n">
-        <v>62.22294035382063</v>
+        <v>85.68024619823251</v>
       </c>
       <c r="J24" t="n">
-        <v>140.3842883820539</v>
+        <v>312.9235862973361</v>
       </c>
       <c r="K24" t="n">
-        <v>286.6746405364526</v>
+        <v>459.2139384517347</v>
       </c>
       <c r="L24" t="n">
-        <v>490.9074852965163</v>
+        <v>663.4467832117984</v>
       </c>
       <c r="M24" t="n">
-        <v>732.3830731685482</v>
+        <v>904.9223710838304</v>
       </c>
       <c r="N24" t="n">
-        <v>982.5912061173246</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O24" t="n">
-        <v>1207.872048919153</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P24" t="n">
-        <v>1385.538163113023</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q24" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R24" t="n">
         <v>1815.524390138853</v>
@@ -6110,10 +6110,10 @@
         <v>1030.189808590221</v>
       </c>
       <c r="X24" t="n">
-        <v>866.7124623568834</v>
+        <v>866.7124623568835</v>
       </c>
       <c r="Y24" t="n">
-        <v>727.0195737101758</v>
+        <v>727.0195737101759</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>218.9016524758956</v>
+        <v>1089.831365210281</v>
       </c>
       <c r="C25" t="n">
-        <v>46.92908935481157</v>
+        <v>917.8588020891974</v>
       </c>
       <c r="D25" t="n">
-        <v>42.3139218351261</v>
+        <v>754.5420292159681</v>
       </c>
       <c r="E25" t="n">
-        <v>42.3139218351261</v>
+        <v>588.3338233688216</v>
       </c>
       <c r="F25" t="n">
-        <v>42.3139218351261</v>
+        <v>416.472049143382</v>
       </c>
       <c r="G25" t="n">
-        <v>42.3139218351261</v>
+        <v>251.107482692027</v>
       </c>
       <c r="H25" t="n">
-        <v>42.3139218351261</v>
+        <v>115.2454904075977</v>
       </c>
       <c r="I25" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512612</v>
       </c>
       <c r="J25" t="n">
-        <v>83.72089458732204</v>
+        <v>83.72089458732208</v>
       </c>
       <c r="K25" t="n">
-        <v>411.8662758925018</v>
+        <v>164.5836667784798</v>
       </c>
       <c r="L25" t="n">
-        <v>520.2024763457301</v>
+        <v>272.9198672317082</v>
       </c>
       <c r="M25" t="n">
-        <v>634.9572808573034</v>
+        <v>680.0553291423857</v>
       </c>
       <c r="N25" t="n">
-        <v>1146.293243408788</v>
+        <v>1191.39129169387</v>
       </c>
       <c r="O25" t="n">
-        <v>1519.07293747027</v>
+        <v>1670.44643484817</v>
       </c>
       <c r="P25" t="n">
-        <v>1915.456417501846</v>
+        <v>2066.829914879746</v>
       </c>
       <c r="Q25" t="n">
-        <v>2115.696091756305</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="R25" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="S25" t="n">
-        <v>1954.200281281118</v>
+        <v>1961.1131991728</v>
       </c>
       <c r="T25" t="n">
-        <v>1714.673929230418</v>
+        <v>1721.5868471221</v>
       </c>
       <c r="U25" t="n">
-        <v>1434.538157271872</v>
+        <v>1721.5868471221</v>
       </c>
       <c r="V25" t="n">
-        <v>1152.826689879901</v>
+        <v>1721.5868471221</v>
       </c>
       <c r="W25" t="n">
-        <v>877.9742860524141</v>
+        <v>1446.734443294613</v>
       </c>
       <c r="X25" t="n">
-        <v>635.4103894982192</v>
+        <v>1446.734443294613</v>
       </c>
       <c r="Y25" t="n">
-        <v>409.0676211879612</v>
+        <v>1279.997333922347</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>894.3388336324258</v>
+        <v>1439.10963680343</v>
       </c>
       <c r="C26" t="n">
-        <v>467.4381036457259</v>
+        <v>1012.208906816731</v>
       </c>
       <c r="D26" t="n">
-        <v>467.4381036457259</v>
+        <v>588.9162860017309</v>
       </c>
       <c r="E26" t="n">
-        <v>467.4381036457259</v>
+        <v>162.9393461495885</v>
       </c>
       <c r="F26" t="n">
-        <v>42.3139218351261</v>
+        <v>162.9393461495885</v>
       </c>
       <c r="G26" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="H26" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="I26" t="n">
-        <v>83.28385069007345</v>
+        <v>83.28385069007346</v>
       </c>
       <c r="J26" t="n">
-        <v>219.6508459321591</v>
+        <v>219.6508459321597</v>
       </c>
       <c r="K26" t="n">
-        <v>432.2746315182162</v>
+        <v>432.2746315182169</v>
       </c>
       <c r="L26" t="n">
-        <v>702.0497753208668</v>
+        <v>702.0497753208678</v>
       </c>
       <c r="M26" t="n">
-        <v>1007.372886491277</v>
+        <v>1007.372886491278</v>
       </c>
       <c r="N26" t="n">
-        <v>1318.386188667469</v>
+        <v>1318.38618866747</v>
       </c>
       <c r="O26" t="n">
-        <v>1609.900250660811</v>
+        <v>1609.900250660812</v>
       </c>
       <c r="P26" t="n">
-        <v>1853.094345516361</v>
+        <v>1853.094345516362</v>
       </c>
       <c r="Q26" t="n">
-        <v>2027.89491136433</v>
+        <v>2027.894911364332</v>
       </c>
       <c r="R26" t="n">
-        <v>2115.696091756305</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="S26" t="n">
-        <v>2115.696091756305</v>
+        <v>2056.663616770824</v>
       </c>
       <c r="T26" t="n">
-        <v>2115.696091756305</v>
+        <v>1844.44690684854</v>
       </c>
       <c r="U26" t="n">
-        <v>1857.500339150581</v>
+        <v>1844.44690684854</v>
       </c>
       <c r="V26" t="n">
-        <v>1857.500339150581</v>
+        <v>1844.44690684854</v>
       </c>
       <c r="W26" t="n">
-        <v>1461.108989450928</v>
+        <v>1844.44690684854</v>
       </c>
       <c r="X26" t="n">
-        <v>1314.187197923956</v>
+        <v>1844.44690684854</v>
       </c>
       <c r="Y26" t="n">
-        <v>1314.187197923956</v>
+        <v>1439.10963680343</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>598.092564290113</v>
+        <v>598.0925642901132</v>
       </c>
       <c r="C27" t="n">
-        <v>480.5866608076178</v>
+        <v>480.5866608076179</v>
       </c>
       <c r="D27" t="n">
         <v>376.7467023229029</v>
@@ -6296,31 +6296,31 @@
         <v>178.3989382787443</v>
       </c>
       <c r="G27" t="n">
-        <v>85.40962142451073</v>
+        <v>85.40962142451076</v>
       </c>
       <c r="H27" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="I27" t="n">
-        <v>62.22294035382063</v>
+        <v>66.79108879309938</v>
       </c>
       <c r="J27" t="n">
-        <v>140.3842883820539</v>
+        <v>144.9524368213327</v>
       </c>
       <c r="K27" t="n">
-        <v>286.6746405364524</v>
+        <v>291.2427889757313</v>
       </c>
       <c r="L27" t="n">
-        <v>490.9074852965161</v>
+        <v>495.475633735795</v>
       </c>
       <c r="M27" t="n">
-        <v>732.383073168548</v>
+        <v>736.9512216078269</v>
       </c>
       <c r="N27" t="n">
-        <v>982.5912061173244</v>
+        <v>1260.586004317513</v>
       </c>
       <c r="O27" t="n">
-        <v>1207.872048919152</v>
+        <v>1485.866847119341</v>
       </c>
       <c r="P27" t="n">
         <v>1663.532961313211</v>
@@ -6347,10 +6347,10 @@
         <v>1030.189808590221</v>
       </c>
       <c r="X27" t="n">
-        <v>866.7124623568834</v>
+        <v>866.7124623568835</v>
       </c>
       <c r="Y27" t="n">
-        <v>727.0195737101758</v>
+        <v>727.0195737101759</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>371.8389005555018</v>
+        <v>415.9805390796436</v>
       </c>
       <c r="C28" t="n">
-        <v>371.8389005555018</v>
+        <v>244.0079759585596</v>
       </c>
       <c r="D28" t="n">
-        <v>208.5221276822726</v>
+        <v>244.0079759585596</v>
       </c>
       <c r="E28" t="n">
-        <v>42.3139218351261</v>
+        <v>244.0079759585596</v>
       </c>
       <c r="F28" t="n">
-        <v>42.3139218351261</v>
+        <v>72.14620173311999</v>
       </c>
       <c r="G28" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="H28" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="I28" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="J28" t="n">
-        <v>161.6426112355429</v>
+        <v>83.72089458732206</v>
       </c>
       <c r="K28" t="n">
-        <v>425.7866702826742</v>
+        <v>164.5836667784798</v>
       </c>
       <c r="L28" t="n">
-        <v>534.1228707359024</v>
+        <v>469.1767510060079</v>
       </c>
       <c r="M28" t="n">
-        <v>1057.757653445588</v>
+        <v>992.8115337156937</v>
       </c>
       <c r="N28" t="n">
-        <v>1569.093615997072</v>
+        <v>1504.147496267178</v>
       </c>
       <c r="O28" t="n">
-        <v>1670.446434848169</v>
+        <v>1983.202639421478</v>
       </c>
       <c r="P28" t="n">
-        <v>2066.829914879746</v>
+        <v>2066.829914879747</v>
       </c>
       <c r="Q28" t="n">
-        <v>2115.696091756305</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="R28" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="S28" t="n">
-        <v>1954.200281281118</v>
+        <v>1961.1131991728</v>
       </c>
       <c r="T28" t="n">
-        <v>1714.673929230418</v>
+        <v>1721.586847122101</v>
       </c>
       <c r="U28" t="n">
-        <v>1434.538157271872</v>
+        <v>1441.451075163555</v>
       </c>
       <c r="V28" t="n">
-        <v>1152.826689879901</v>
+        <v>1159.739607771583</v>
       </c>
       <c r="W28" t="n">
-        <v>877.9742860524141</v>
+        <v>884.8872039440964</v>
       </c>
       <c r="X28" t="n">
-        <v>788.3476375778255</v>
+        <v>642.3233073899015</v>
       </c>
       <c r="Y28" t="n">
-        <v>562.0048692675675</v>
+        <v>415.9805390796436</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>869.7877060829859</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="C29" t="n">
-        <v>869.7877060829859</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="D29" t="n">
-        <v>869.7877060829859</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="E29" t="n">
-        <v>869.7877060829859</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="F29" t="n">
-        <v>444.6635242723861</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="G29" t="n">
-        <v>42.3139218351261</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="H29" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="I29" t="n">
-        <v>83.28385069007341</v>
+        <v>83.28385069007345</v>
       </c>
       <c r="J29" t="n">
         <v>219.650845932159</v>
@@ -6469,7 +6469,7 @@
         <v>432.2746315182161</v>
       </c>
       <c r="L29" t="n">
-        <v>702.0497753208668</v>
+        <v>702.049775320867</v>
       </c>
       <c r="M29" t="n">
         <v>1007.372886491277</v>
@@ -6478,37 +6478,37 @@
         <v>1318.38618866747</v>
       </c>
       <c r="O29" t="n">
-        <v>1609.900250660811</v>
+        <v>1609.900250660812</v>
       </c>
       <c r="P29" t="n">
-        <v>1853.094345516361</v>
+        <v>1853.094345516362</v>
       </c>
       <c r="Q29" t="n">
-        <v>2027.89491136433</v>
+        <v>2027.894911364332</v>
       </c>
       <c r="R29" t="n">
-        <v>2115.696091756305</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="S29" t="n">
-        <v>2056.663616770823</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="T29" t="n">
-        <v>2056.663616770823</v>
+        <v>1903.479381834023</v>
       </c>
       <c r="U29" t="n">
-        <v>1798.467864165098</v>
+        <v>1645.283629228298</v>
       </c>
       <c r="V29" t="n">
-        <v>1798.467864165098</v>
+        <v>1287.794214354548</v>
       </c>
       <c r="W29" t="n">
-        <v>1402.076514465445</v>
+        <v>891.4028646548945</v>
       </c>
       <c r="X29" t="n">
-        <v>1289.636070374516</v>
+        <v>891.4028646548945</v>
       </c>
       <c r="Y29" t="n">
-        <v>1289.636070374516</v>
+        <v>722.1573458468811</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>598.092564290113</v>
+        <v>598.0925642901132</v>
       </c>
       <c r="C30" t="n">
-        <v>480.5866608076178</v>
+        <v>480.5866608076179</v>
       </c>
       <c r="D30" t="n">
         <v>376.7467023229029</v>
@@ -6533,37 +6533,37 @@
         <v>178.3989382787443</v>
       </c>
       <c r="G30" t="n">
-        <v>85.40962142451073</v>
+        <v>85.40962142451076</v>
       </c>
       <c r="H30" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="I30" t="n">
-        <v>62.22294035382063</v>
+        <v>85.68024619823251</v>
       </c>
       <c r="J30" t="n">
-        <v>140.3842883820539</v>
+        <v>312.9235862973363</v>
       </c>
       <c r="K30" t="n">
-        <v>286.6746405364524</v>
+        <v>459.2139384517349</v>
       </c>
       <c r="L30" t="n">
-        <v>490.9074852965161</v>
+        <v>663.4467832117986</v>
       </c>
       <c r="M30" t="n">
-        <v>1010.377871368737</v>
+        <v>904.9223710838305</v>
       </c>
       <c r="N30" t="n">
-        <v>1260.586004317513</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O30" t="n">
-        <v>1485.866847119341</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P30" t="n">
-        <v>1663.532961313211</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q30" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R30" t="n">
         <v>1815.524390138853</v>
@@ -6584,10 +6584,10 @@
         <v>1030.189808590221</v>
       </c>
       <c r="X30" t="n">
-        <v>866.7124623568834</v>
+        <v>866.7124623568835</v>
       </c>
       <c r="Y30" t="n">
-        <v>727.0195737101758</v>
+        <v>727.0195737101759</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>549.465032054879</v>
+        <v>380.3974629510842</v>
       </c>
       <c r="C31" t="n">
-        <v>377.492468933795</v>
+        <v>208.4248998300002</v>
       </c>
       <c r="D31" t="n">
-        <v>214.1756960605657</v>
+        <v>208.4248998300002</v>
       </c>
       <c r="E31" t="n">
-        <v>214.1756960605657</v>
+        <v>208.4248998300002</v>
       </c>
       <c r="F31" t="n">
-        <v>42.3139218351261</v>
+        <v>115.2454904075977</v>
       </c>
       <c r="G31" t="n">
-        <v>42.3139218351261</v>
+        <v>115.2454904075977</v>
       </c>
       <c r="H31" t="n">
-        <v>42.3139218351261</v>
+        <v>115.2454904075977</v>
       </c>
       <c r="I31" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="J31" t="n">
-        <v>83.72089458732202</v>
+        <v>83.72089458732206</v>
       </c>
       <c r="K31" t="n">
-        <v>306.9042575117224</v>
+        <v>164.5836667784798</v>
       </c>
       <c r="L31" t="n">
-        <v>791.6293515561157</v>
+        <v>649.3087608228731</v>
       </c>
       <c r="M31" t="n">
-        <v>906.384156067689</v>
+        <v>1172.943543532559</v>
       </c>
       <c r="N31" t="n">
-        <v>1417.720118619173</v>
+        <v>1684.279506084044</v>
       </c>
       <c r="O31" t="n">
-        <v>1519.07293747027</v>
+        <v>1983.202639421478</v>
       </c>
       <c r="P31" t="n">
-        <v>1915.456417501847</v>
+        <v>2066.829914879747</v>
       </c>
       <c r="Q31" t="n">
-        <v>2115.696091756305</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="R31" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="S31" t="n">
-        <v>1954.200281281118</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="T31" t="n">
-        <v>1714.673929230418</v>
+        <v>1876.169739705607</v>
       </c>
       <c r="U31" t="n">
-        <v>1434.538157271872</v>
+        <v>1596.033967747061</v>
       </c>
       <c r="V31" t="n">
-        <v>1152.826689879901</v>
+        <v>1314.32250035509</v>
       </c>
       <c r="W31" t="n">
-        <v>877.9742860524141</v>
+        <v>1039.470096527603</v>
       </c>
       <c r="X31" t="n">
-        <v>775.8078003651369</v>
+        <v>796.9061999734078</v>
       </c>
       <c r="Y31" t="n">
-        <v>549.465032054879</v>
+        <v>570.5634316631498</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>444.6635242723861</v>
+        <v>1225.095253647041</v>
       </c>
       <c r="C32" t="n">
-        <v>444.6635242723861</v>
+        <v>798.1945236603412</v>
       </c>
       <c r="D32" t="n">
-        <v>444.6635242723861</v>
+        <v>374.9019028453415</v>
       </c>
       <c r="E32" t="n">
-        <v>444.6635242723861</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="F32" t="n">
-        <v>444.6635242723861</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="G32" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="H32" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="I32" t="n">
-        <v>83.28385069007342</v>
+        <v>83.28385069007346</v>
       </c>
       <c r="J32" t="n">
-        <v>219.650845932159</v>
+        <v>219.6508459321591</v>
       </c>
       <c r="K32" t="n">
-        <v>432.2746315182162</v>
+        <v>432.2746315182163</v>
       </c>
       <c r="L32" t="n">
-        <v>702.0497753208667</v>
+        <v>702.0497753208672</v>
       </c>
       <c r="M32" t="n">
-        <v>1007.372886491276</v>
+        <v>1007.372886491278</v>
       </c>
       <c r="N32" t="n">
-        <v>1318.386188667469</v>
+        <v>1318.38618866747</v>
       </c>
       <c r="O32" t="n">
-        <v>1609.900250660811</v>
+        <v>1609.900250660812</v>
       </c>
       <c r="P32" t="n">
-        <v>1853.09434551636</v>
+        <v>1853.094345516362</v>
       </c>
       <c r="Q32" t="n">
-        <v>2027.89491136433</v>
+        <v>2027.894911364332</v>
       </c>
       <c r="R32" t="n">
-        <v>2115.696091756305</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="S32" t="n">
-        <v>2115.696091756305</v>
+        <v>2056.663616770824</v>
       </c>
       <c r="T32" t="n">
-        <v>1903.479381834021</v>
+        <v>2056.663616770824</v>
       </c>
       <c r="U32" t="n">
-        <v>1645.283629228296</v>
+        <v>2056.663616770824</v>
       </c>
       <c r="V32" t="n">
-        <v>1645.283629228296</v>
+        <v>2056.663616770824</v>
       </c>
       <c r="W32" t="n">
-        <v>1248.892279528643</v>
+        <v>2056.663616770824</v>
       </c>
       <c r="X32" t="n">
-        <v>864.5118885639162</v>
+        <v>1644.943617938571</v>
       </c>
       <c r="Y32" t="n">
-        <v>864.5118885639162</v>
+        <v>1644.943617938571</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>598.092564290113</v>
+        <v>598.0925642901132</v>
       </c>
       <c r="C33" t="n">
-        <v>480.5866608076178</v>
+        <v>480.5866608076179</v>
       </c>
       <c r="D33" t="n">
         <v>376.7467023229029</v>
@@ -6770,37 +6770,37 @@
         <v>178.3989382787443</v>
       </c>
       <c r="G33" t="n">
-        <v>85.40962142451072</v>
+        <v>85.40962142451076</v>
       </c>
       <c r="H33" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="I33" t="n">
-        <v>62.22294035382062</v>
+        <v>85.68024619823251</v>
       </c>
       <c r="J33" t="n">
-        <v>140.3842883820539</v>
+        <v>312.9235862973363</v>
       </c>
       <c r="K33" t="n">
-        <v>286.6746405364524</v>
+        <v>459.2139384517349</v>
       </c>
       <c r="L33" t="n">
-        <v>495.4756337357958</v>
+        <v>663.4467832117986</v>
       </c>
       <c r="M33" t="n">
-        <v>736.9512216078276</v>
+        <v>904.9223710838305</v>
       </c>
       <c r="N33" t="n">
-        <v>1260.586004317513</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O33" t="n">
-        <v>1485.866847119341</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P33" t="n">
-        <v>1663.532961313211</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q33" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R33" t="n">
         <v>1815.524390138853</v>
@@ -6821,10 +6821,10 @@
         <v>1030.189808590221</v>
       </c>
       <c r="X33" t="n">
-        <v>866.7124623568834</v>
+        <v>866.7124623568835</v>
       </c>
       <c r="Y33" t="n">
-        <v>727.0195737101758</v>
+        <v>727.0195737101759</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>218.9016524758951</v>
+        <v>616.7430322490574</v>
       </c>
       <c r="C34" t="n">
-        <v>46.92908935481111</v>
+        <v>444.7704691279734</v>
       </c>
       <c r="D34" t="n">
-        <v>42.3139218351261</v>
+        <v>281.4536962547441</v>
       </c>
       <c r="E34" t="n">
-        <v>42.3139218351261</v>
+        <v>115.2454904075977</v>
       </c>
       <c r="F34" t="n">
-        <v>42.3139218351261</v>
+        <v>115.2454904075977</v>
       </c>
       <c r="G34" t="n">
-        <v>42.3139218351261</v>
+        <v>115.2454904075977</v>
       </c>
       <c r="H34" t="n">
-        <v>42.3139218351261</v>
+        <v>115.2454904075977</v>
       </c>
       <c r="I34" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="J34" t="n">
-        <v>83.72089458732202</v>
+        <v>83.72089458732206</v>
       </c>
       <c r="K34" t="n">
-        <v>305.5908267996838</v>
+        <v>164.5836667784798</v>
       </c>
       <c r="L34" t="n">
-        <v>413.9270272529121</v>
+        <v>649.3087608228731</v>
       </c>
       <c r="M34" t="n">
-        <v>528.6818317644854</v>
+        <v>764.0635653344464</v>
       </c>
       <c r="N34" t="n">
-        <v>1040.01779431597</v>
+        <v>1275.399527885931</v>
       </c>
       <c r="O34" t="n">
-        <v>1519.07293747027</v>
+        <v>1754.454671040231</v>
       </c>
       <c r="P34" t="n">
-        <v>1915.456417501846</v>
+        <v>2066.829914879747</v>
       </c>
       <c r="Q34" t="n">
-        <v>2115.696091756305</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="R34" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="S34" t="n">
-        <v>1954.200281281117</v>
+        <v>1961.1131991728</v>
       </c>
       <c r="T34" t="n">
-        <v>1714.673929230418</v>
+        <v>1721.586847122101</v>
       </c>
       <c r="U34" t="n">
-        <v>1434.538157271872</v>
+        <v>1441.451075163555</v>
       </c>
       <c r="V34" t="n">
-        <v>1152.826689879901</v>
+        <v>1159.739607771583</v>
       </c>
       <c r="W34" t="n">
-        <v>877.9742860524136</v>
+        <v>884.8872039440964</v>
       </c>
       <c r="X34" t="n">
-        <v>635.4103894982187</v>
+        <v>806.909000961123</v>
       </c>
       <c r="Y34" t="n">
-        <v>409.0676211879608</v>
+        <v>806.909000961123</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>469.214651821826</v>
+        <v>1225.095253647041</v>
       </c>
       <c r="C35" t="n">
-        <v>42.31392183512611</v>
+        <v>798.1945236603412</v>
       </c>
       <c r="D35" t="n">
-        <v>42.31392183512611</v>
+        <v>374.9019028453415</v>
       </c>
       <c r="E35" t="n">
-        <v>42.31392183512611</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="F35" t="n">
-        <v>42.31392183512611</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="G35" t="n">
-        <v>42.31392183512611</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="H35" t="n">
-        <v>42.31392183512611</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="I35" t="n">
-        <v>83.28385069007322</v>
+        <v>83.28385069007345</v>
       </c>
       <c r="J35" t="n">
-        <v>219.6508459321587</v>
+        <v>219.650845932159</v>
       </c>
       <c r="K35" t="n">
-        <v>432.2746315182159</v>
+        <v>432.2746315182161</v>
       </c>
       <c r="L35" t="n">
-        <v>702.0497753208667</v>
+        <v>702.049775320867</v>
       </c>
       <c r="M35" t="n">
         <v>1007.372886491277</v>
       </c>
       <c r="N35" t="n">
-        <v>1318.386188667469</v>
+        <v>1318.38618866747</v>
       </c>
       <c r="O35" t="n">
-        <v>1609.900250660811</v>
+        <v>1609.900250660812</v>
       </c>
       <c r="P35" t="n">
-        <v>1853.094345516361</v>
+        <v>1853.094345516362</v>
       </c>
       <c r="Q35" t="n">
-        <v>2027.894911364331</v>
+        <v>2027.894911364332</v>
       </c>
       <c r="R35" t="n">
         <v>2115.696091756306</v>
       </c>
       <c r="S35" t="n">
-        <v>2056.663616770823</v>
+        <v>2056.663616770824</v>
       </c>
       <c r="T35" t="n">
-        <v>2056.663616770823</v>
+        <v>2056.663616770824</v>
       </c>
       <c r="U35" t="n">
-        <v>2056.663616770823</v>
+        <v>2056.663616770824</v>
       </c>
       <c r="V35" t="n">
-        <v>1706.120284990719</v>
+        <v>2056.663616770824</v>
       </c>
       <c r="W35" t="n">
-        <v>1706.120284990719</v>
+        <v>2056.663616770824</v>
       </c>
       <c r="X35" t="n">
-        <v>1294.400286158466</v>
+        <v>1644.943617938571</v>
       </c>
       <c r="Y35" t="n">
-        <v>889.0630161133561</v>
+        <v>1644.943617938571</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>598.092564290113</v>
+        <v>598.0925642901132</v>
       </c>
       <c r="C36" t="n">
-        <v>480.5866608076178</v>
+        <v>480.5866608076179</v>
       </c>
       <c r="D36" t="n">
         <v>376.7467023229029</v>
@@ -7007,37 +7007,37 @@
         <v>178.3989382787443</v>
       </c>
       <c r="G36" t="n">
-        <v>85.40962142451073</v>
+        <v>85.40962142451076</v>
       </c>
       <c r="H36" t="n">
-        <v>42.31392183512611</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="I36" t="n">
-        <v>62.22294035382063</v>
+        <v>85.68024619823251</v>
       </c>
       <c r="J36" t="n">
-        <v>140.3842883820539</v>
+        <v>312.9235862973363</v>
       </c>
       <c r="K36" t="n">
-        <v>286.6746405364524</v>
+        <v>459.2139384517349</v>
       </c>
       <c r="L36" t="n">
-        <v>490.9074852965161</v>
+        <v>663.4467832117986</v>
       </c>
       <c r="M36" t="n">
-        <v>732.383073168548</v>
+        <v>904.9223710838305</v>
       </c>
       <c r="N36" t="n">
-        <v>982.5912061173244</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O36" t="n">
-        <v>1207.872048919152</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P36" t="n">
-        <v>1385.538163113023</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q36" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R36" t="n">
         <v>1815.524390138853</v>
@@ -7058,10 +7058,10 @@
         <v>1030.189808590221</v>
       </c>
       <c r="X36" t="n">
-        <v>866.7124623568834</v>
+        <v>866.7124623568835</v>
       </c>
       <c r="Y36" t="n">
-        <v>727.0195737101758</v>
+        <v>727.0195737101759</v>
       </c>
     </row>
     <row r="37">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>635.4103894982196</v>
+        <v>543.8114636765858</v>
       </c>
       <c r="C37" t="n">
-        <v>635.4103894982196</v>
+        <v>371.8389005555019</v>
       </c>
       <c r="D37" t="n">
-        <v>472.0936166249903</v>
+        <v>208.5221276822726</v>
       </c>
       <c r="E37" t="n">
-        <v>305.8854107778438</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="F37" t="n">
-        <v>305.8854107778438</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="G37" t="n">
-        <v>251.107482692027</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="H37" t="n">
-        <v>115.2454904075977</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="I37" t="n">
-        <v>42.31392183512611</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="J37" t="n">
-        <v>161.6426112355429</v>
+        <v>128.6042809837226</v>
       </c>
       <c r="K37" t="n">
-        <v>242.5053834267006</v>
+        <v>209.4670531748803</v>
       </c>
       <c r="L37" t="n">
-        <v>565.300524630812</v>
+        <v>317.8032536281087</v>
       </c>
       <c r="M37" t="n">
-        <v>680.0553291423853</v>
+        <v>841.4380363377945</v>
       </c>
       <c r="N37" t="n">
-        <v>1191.39129169387</v>
+        <v>1352.773998889279</v>
       </c>
       <c r="O37" t="n">
-        <v>1670.446434848169</v>
+        <v>1831.829142043579</v>
       </c>
       <c r="P37" t="n">
-        <v>2066.829914879746</v>
+        <v>1915.456417501848</v>
       </c>
       <c r="Q37" t="n">
         <v>2115.696091756306</v>
@@ -7122,25 +7122,25 @@
         <v>2108.783173864625</v>
       </c>
       <c r="S37" t="n">
-        <v>1954.200281281118</v>
+        <v>2108.783173864625</v>
       </c>
       <c r="T37" t="n">
-        <v>1714.673929230419</v>
+        <v>1869.256821813926</v>
       </c>
       <c r="U37" t="n">
-        <v>1434.538157271873</v>
+        <v>1589.12104985538</v>
       </c>
       <c r="V37" t="n">
-        <v>1152.826689879902</v>
+        <v>1307.409582463409</v>
       </c>
       <c r="W37" t="n">
-        <v>877.9742860524145</v>
+        <v>1032.557178635922</v>
       </c>
       <c r="X37" t="n">
-        <v>635.4103894982196</v>
+        <v>789.9932820817268</v>
       </c>
       <c r="Y37" t="n">
-        <v>635.4103894982196</v>
+        <v>563.6505137714688</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1695.847727464776</v>
+        <v>1743.608394299568</v>
       </c>
       <c r="C38" t="n">
-        <v>1573.258467509623</v>
+        <v>1316.707664312868</v>
       </c>
       <c r="D38" t="n">
-        <v>1573.258467509623</v>
+        <v>893.4150434978683</v>
       </c>
       <c r="E38" t="n">
-        <v>1147.281527657481</v>
+        <v>467.4381036457259</v>
       </c>
       <c r="F38" t="n">
-        <v>722.1573458468811</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="G38" t="n">
-        <v>319.8077434096211</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="H38" t="n">
-        <v>42.31392183512611</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="I38" t="n">
         <v>83.2838506900739</v>
@@ -7183,43 +7183,43 @@
         <v>702.0497753208675</v>
       </c>
       <c r="M38" t="n">
-        <v>1007.372886491277</v>
+        <v>1007.372886491278</v>
       </c>
       <c r="N38" t="n">
         <v>1318.38618866747</v>
       </c>
       <c r="O38" t="n">
-        <v>1609.900250660811</v>
+        <v>1609.900250660812</v>
       </c>
       <c r="P38" t="n">
-        <v>1853.094345516361</v>
+        <v>1853.094345516362</v>
       </c>
       <c r="Q38" t="n">
-        <v>2027.894911364331</v>
+        <v>2027.894911364332</v>
       </c>
       <c r="R38" t="n">
         <v>2115.696091756306</v>
       </c>
       <c r="S38" t="n">
-        <v>2115.696091756306</v>
+        <v>2056.663616770824</v>
       </c>
       <c r="T38" t="n">
-        <v>2115.696091756306</v>
+        <v>2056.663616770824</v>
       </c>
       <c r="U38" t="n">
-        <v>2115.696091756306</v>
+        <v>2056.663616770824</v>
       </c>
       <c r="V38" t="n">
-        <v>2115.696091756306</v>
+        <v>2056.663616770824</v>
       </c>
       <c r="W38" t="n">
-        <v>2115.696091756306</v>
+        <v>2056.663616770824</v>
       </c>
       <c r="X38" t="n">
-        <v>2115.696091756306</v>
+        <v>2056.663616770824</v>
       </c>
       <c r="Y38" t="n">
-        <v>2115.696091756306</v>
+        <v>1743.608394299568</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>898.2642659075658</v>
+        <v>598.0925642901132</v>
       </c>
       <c r="C39" t="n">
-        <v>780.7583624250706</v>
+        <v>480.5866608076179</v>
       </c>
       <c r="D39" t="n">
-        <v>676.9184039403556</v>
+        <v>376.7467023229029</v>
       </c>
       <c r="E39" t="n">
-        <v>572.2164702132928</v>
+        <v>272.0447685958401</v>
       </c>
       <c r="F39" t="n">
-        <v>478.570639896197</v>
+        <v>178.3989382787443</v>
       </c>
       <c r="G39" t="n">
-        <v>385.5813230419635</v>
+        <v>85.40962142451076</v>
       </c>
       <c r="H39" t="n">
-        <v>342.4856234525788</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="I39" t="n">
-        <v>362.3946419712734</v>
+        <v>85.68024619823251</v>
       </c>
       <c r="J39" t="n">
-        <v>440.5559899995067</v>
+        <v>312.9235862973363</v>
       </c>
       <c r="K39" t="n">
-        <v>586.8463421539052</v>
+        <v>459.2139384517349</v>
       </c>
       <c r="L39" t="n">
-        <v>791.0791869139689</v>
+        <v>663.4467832117986</v>
       </c>
       <c r="M39" t="n">
-        <v>1032.554774786001</v>
+        <v>904.9223710838305</v>
       </c>
       <c r="N39" t="n">
-        <v>1282.762907734777</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O39" t="n">
-        <v>1786.038548736793</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P39" t="n">
-        <v>1963.704662930664</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q39" t="n">
-        <v>2074.357885788953</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R39" t="n">
-        <v>2115.696091756306</v>
+        <v>1815.524390138853</v>
       </c>
       <c r="S39" t="n">
-        <v>2054.143627741981</v>
+        <v>1753.971926124528</v>
       </c>
       <c r="T39" t="n">
-        <v>1916.554192386069</v>
+        <v>1616.382490768616</v>
       </c>
       <c r="U39" t="n">
-        <v>1731.85602623519</v>
+        <v>1431.684324617737</v>
       </c>
       <c r="V39" t="n">
-        <v>1526.882887374456</v>
+        <v>1226.711185757003</v>
       </c>
       <c r="W39" t="n">
-        <v>1330.361510207673</v>
+        <v>1030.189808590221</v>
       </c>
       <c r="X39" t="n">
-        <v>1166.884163974336</v>
+        <v>866.7124623568835</v>
       </c>
       <c r="Y39" t="n">
-        <v>1027.191275327629</v>
+        <v>727.0195737101759</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1089.831365210281</v>
+        <v>542.85703538515</v>
       </c>
       <c r="C40" t="n">
-        <v>917.8588020891974</v>
+        <v>542.85703538515</v>
       </c>
       <c r="D40" t="n">
-        <v>754.5420292159681</v>
+        <v>379.5402625119207</v>
       </c>
       <c r="E40" t="n">
-        <v>588.3338233688216</v>
+        <v>379.5402625119207</v>
       </c>
       <c r="F40" t="n">
-        <v>416.472049143382</v>
+        <v>207.6784882864811</v>
       </c>
       <c r="G40" t="n">
-        <v>251.107482692027</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="H40" t="n">
-        <v>115.2454904075977</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="I40" t="n">
-        <v>42.31392183512611</v>
+        <v>42.31392183512613</v>
       </c>
       <c r="J40" t="n">
         <v>161.6426112355429</v>
       </c>
       <c r="K40" t="n">
-        <v>447.4306995333898</v>
+        <v>242.5053834267006</v>
       </c>
       <c r="L40" t="n">
-        <v>932.155793577783</v>
+        <v>727.230477471094</v>
       </c>
       <c r="M40" t="n">
-        <v>1455.790576287469</v>
+        <v>1250.86526018078</v>
       </c>
       <c r="N40" t="n">
-        <v>1569.093615997073</v>
+        <v>1762.201222732264</v>
       </c>
       <c r="O40" t="n">
-        <v>1670.446434848169</v>
+        <v>1983.202639421478</v>
       </c>
       <c r="P40" t="n">
-        <v>2066.829914879746</v>
+        <v>2066.829914879747</v>
       </c>
       <c r="Q40" t="n">
         <v>2115.696091756306</v>
@@ -7359,25 +7359,25 @@
         <v>2115.696091756306</v>
       </c>
       <c r="S40" t="n">
-        <v>2115.696091756306</v>
+        <v>2051.812895880114</v>
       </c>
       <c r="T40" t="n">
-        <v>2115.696091756306</v>
+        <v>1812.286543829415</v>
       </c>
       <c r="U40" t="n">
-        <v>2115.696091756306</v>
+        <v>1532.150771870869</v>
       </c>
       <c r="V40" t="n">
-        <v>1833.984624364334</v>
+        <v>1250.439304478897</v>
       </c>
       <c r="W40" t="n">
-        <v>1559.132220536847</v>
+        <v>975.5869006514105</v>
       </c>
       <c r="X40" t="n">
-        <v>1316.568323982653</v>
+        <v>733.0230040972156</v>
       </c>
       <c r="Y40" t="n">
-        <v>1090.225555672395</v>
+        <v>733.0230040972156</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>722.1573458468811</v>
+        <v>1172.685413248463</v>
       </c>
       <c r="C41" t="n">
-        <v>722.1573458468811</v>
+        <v>745.7846832617636</v>
       </c>
       <c r="D41" t="n">
-        <v>722.1573458468811</v>
+        <v>745.7846832617636</v>
       </c>
       <c r="E41" t="n">
-        <v>722.1573458468811</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="F41" t="n">
-        <v>722.1573458468811</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="G41" t="n">
         <v>319.8077434096211</v>
       </c>
       <c r="H41" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512612</v>
       </c>
       <c r="I41" t="n">
         <v>83.28385069007345</v>
@@ -7414,49 +7414,49 @@
         <v>219.6508459321591</v>
       </c>
       <c r="K41" t="n">
-        <v>432.2746315182162</v>
+        <v>432.2746315182163</v>
       </c>
       <c r="L41" t="n">
-        <v>702.0497753208668</v>
+        <v>702.0497753208672</v>
       </c>
       <c r="M41" t="n">
         <v>1007.372886491277</v>
       </c>
       <c r="N41" t="n">
-        <v>1318.386188667469</v>
+        <v>1318.38618866747</v>
       </c>
       <c r="O41" t="n">
-        <v>1609.900250660811</v>
+        <v>1609.900250660812</v>
       </c>
       <c r="P41" t="n">
-        <v>1853.09434551636</v>
+        <v>1853.094345516361</v>
       </c>
       <c r="Q41" t="n">
-        <v>2027.89491136433</v>
+        <v>2027.894911364331</v>
       </c>
       <c r="R41" t="n">
-        <v>2115.696091756305</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="S41" t="n">
         <v>2056.663616770823</v>
       </c>
       <c r="T41" t="n">
-        <v>1844.446906848539</v>
+        <v>1844.44690684854</v>
       </c>
       <c r="U41" t="n">
-        <v>1844.446906848539</v>
+        <v>1586.251154242815</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.957491974788</v>
+        <v>1228.761739369065</v>
       </c>
       <c r="W41" t="n">
-        <v>1133.877344679134</v>
+        <v>1172.685413248463</v>
       </c>
       <c r="X41" t="n">
-        <v>722.1573458468811</v>
+        <v>1172.685413248463</v>
       </c>
       <c r="Y41" t="n">
-        <v>722.1573458468811</v>
+        <v>1172.685413248463</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>598.092564290113</v>
+        <v>598.0925642901132</v>
       </c>
       <c r="C42" t="n">
-        <v>480.5866608076178</v>
+        <v>480.5866608076179</v>
       </c>
       <c r="D42" t="n">
         <v>376.7467023229029</v>
@@ -7481,37 +7481,37 @@
         <v>178.3989382787443</v>
       </c>
       <c r="G42" t="n">
-        <v>85.40962142451073</v>
+        <v>85.40962142451075</v>
       </c>
       <c r="H42" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512612</v>
       </c>
       <c r="I42" t="n">
-        <v>62.22294035382063</v>
+        <v>85.68024619823251</v>
       </c>
       <c r="J42" t="n">
-        <v>140.3842883820539</v>
+        <v>312.9235862973361</v>
       </c>
       <c r="K42" t="n">
-        <v>286.6746405364524</v>
+        <v>459.2139384517347</v>
       </c>
       <c r="L42" t="n">
-        <v>490.9074852965161</v>
+        <v>663.4467832117984</v>
       </c>
       <c r="M42" t="n">
-        <v>732.383073168548</v>
+        <v>904.9223710838304</v>
       </c>
       <c r="N42" t="n">
-        <v>982.5912061173244</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O42" t="n">
-        <v>1207.872048919152</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P42" t="n">
-        <v>1385.538163113023</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q42" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R42" t="n">
         <v>1815.524390138853</v>
@@ -7532,10 +7532,10 @@
         <v>1030.189808590221</v>
       </c>
       <c r="X42" t="n">
-        <v>866.7124623568834</v>
+        <v>866.7124623568835</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.0195737101758</v>
+        <v>727.0195737101759</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.4652501138688</v>
+        <v>624.4443942054762</v>
       </c>
       <c r="C43" t="n">
-        <v>341.4926869927848</v>
+        <v>452.4718310843922</v>
       </c>
       <c r="D43" t="n">
-        <v>178.1759141195555</v>
+        <v>452.4718310843922</v>
       </c>
       <c r="E43" t="n">
-        <v>178.1759141195555</v>
+        <v>452.4718310843922</v>
       </c>
       <c r="F43" t="n">
-        <v>178.1759141195555</v>
+        <v>280.6100568589526</v>
       </c>
       <c r="G43" t="n">
-        <v>178.1759141195555</v>
+        <v>115.2454904075977</v>
       </c>
       <c r="H43" t="n">
-        <v>42.3139218351261</v>
+        <v>115.2454904075977</v>
       </c>
       <c r="I43" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512612</v>
       </c>
       <c r="J43" t="n">
-        <v>161.6426112355429</v>
+        <v>83.72089458732208</v>
       </c>
       <c r="K43" t="n">
-        <v>489.7879925407226</v>
+        <v>411.8662758925019</v>
       </c>
       <c r="L43" t="n">
-        <v>974.5130865851158</v>
+        <v>896.5913699368953</v>
       </c>
       <c r="M43" t="n">
-        <v>1498.147869294801</v>
+        <v>1011.346174448469</v>
       </c>
       <c r="N43" t="n">
-        <v>1611.450909004406</v>
+        <v>1522.682136999953</v>
       </c>
       <c r="O43" t="n">
-        <v>1831.829142043578</v>
+        <v>1983.202639421477</v>
       </c>
       <c r="P43" t="n">
-        <v>1915.456417501847</v>
+        <v>2066.829914879746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2115.696091756305</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="R43" t="n">
-        <v>2108.783173864624</v>
+        <v>2108.783173864625</v>
       </c>
       <c r="S43" t="n">
-        <v>1954.200281281118</v>
+        <v>2079.607251052152</v>
       </c>
       <c r="T43" t="n">
-        <v>1714.673929230418</v>
+        <v>1840.080899001453</v>
       </c>
       <c r="U43" t="n">
-        <v>1434.538157271872</v>
+        <v>1840.080899001453</v>
       </c>
       <c r="V43" t="n">
-        <v>1172.537883690387</v>
+        <v>1558.369431609482</v>
       </c>
       <c r="W43" t="n">
-        <v>1172.537883690387</v>
+        <v>1283.517027781995</v>
       </c>
       <c r="X43" t="n">
-        <v>929.9739871361924</v>
+        <v>1040.9531312278</v>
       </c>
       <c r="Y43" t="n">
-        <v>703.6312188259344</v>
+        <v>814.6103629175418</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>467.4381036457259</v>
+        <v>486.0655946097844</v>
       </c>
       <c r="C44" t="n">
-        <v>467.4381036457259</v>
+        <v>486.0655946097844</v>
       </c>
       <c r="D44" t="n">
-        <v>467.4381036457259</v>
+        <v>486.0655946097844</v>
       </c>
       <c r="E44" t="n">
-        <v>467.4381036457259</v>
+        <v>486.0655946097844</v>
       </c>
       <c r="F44" t="n">
-        <v>42.3139218351261</v>
+        <v>444.6635242723861</v>
       </c>
       <c r="G44" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512612</v>
       </c>
       <c r="H44" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512612</v>
       </c>
       <c r="I44" t="n">
-        <v>83.28385069007341</v>
+        <v>83.28385069007348</v>
       </c>
       <c r="J44" t="n">
-        <v>219.650845932159</v>
+        <v>219.6508459321591</v>
       </c>
       <c r="K44" t="n">
-        <v>432.2746315182164</v>
+        <v>432.2746315182163</v>
       </c>
       <c r="L44" t="n">
         <v>702.0497753208672</v>
@@ -7663,37 +7663,37 @@
         <v>1318.38618866747</v>
       </c>
       <c r="O44" t="n">
-        <v>1609.900250660811</v>
+        <v>1609.900250660812</v>
       </c>
       <c r="P44" t="n">
         <v>1853.094345516361</v>
       </c>
       <c r="Q44" t="n">
-        <v>2027.89491136433</v>
+        <v>2027.894911364331</v>
       </c>
       <c r="R44" t="n">
-        <v>2115.696091756305</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="S44" t="n">
-        <v>2056.663616770823</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="T44" t="n">
-        <v>1844.446906848539</v>
+        <v>1903.479381834022</v>
       </c>
       <c r="U44" t="n">
-        <v>1586.251154242814</v>
+        <v>1645.283629228298</v>
       </c>
       <c r="V44" t="n">
-        <v>1586.251154242814</v>
+        <v>1287.794214354547</v>
       </c>
       <c r="W44" t="n">
-        <v>1189.859804543161</v>
+        <v>891.4028646548941</v>
       </c>
       <c r="X44" t="n">
-        <v>1189.859804543161</v>
+        <v>891.4028646548941</v>
       </c>
       <c r="Y44" t="n">
-        <v>887.286467937256</v>
+        <v>486.0655946097844</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>898.2642659075653</v>
+        <v>598.0925642901132</v>
       </c>
       <c r="C45" t="n">
-        <v>780.7583624250701</v>
+        <v>480.5866608076179</v>
       </c>
       <c r="D45" t="n">
-        <v>676.9184039403551</v>
+        <v>376.7467023229029</v>
       </c>
       <c r="E45" t="n">
-        <v>572.2164702132924</v>
+        <v>272.0447685958401</v>
       </c>
       <c r="F45" t="n">
-        <v>478.5706398961966</v>
+        <v>178.3989382787443</v>
       </c>
       <c r="G45" t="n">
-        <v>385.581323041963</v>
+        <v>85.40962142451075</v>
       </c>
       <c r="H45" t="n">
-        <v>342.4856234525784</v>
+        <v>42.31392183512612</v>
       </c>
       <c r="I45" t="n">
-        <v>362.3946419712729</v>
+        <v>85.68024619823251</v>
       </c>
       <c r="J45" t="n">
-        <v>613.095287914789</v>
+        <v>312.9235862973361</v>
       </c>
       <c r="K45" t="n">
-        <v>759.3856400691875</v>
+        <v>459.2139384517347</v>
       </c>
       <c r="L45" t="n">
-        <v>963.6184848292512</v>
+        <v>663.4467832117984</v>
       </c>
       <c r="M45" t="n">
-        <v>1205.094072701283</v>
+        <v>904.9223710838304</v>
       </c>
       <c r="N45" t="n">
-        <v>1455.302205650059</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O45" t="n">
-        <v>1680.583048451887</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P45" t="n">
-        <v>1858.249162645758</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q45" t="n">
-        <v>1968.902385504047</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R45" t="n">
-        <v>2115.696091756305</v>
+        <v>1815.524390138853</v>
       </c>
       <c r="S45" t="n">
-        <v>2054.143627741981</v>
+        <v>1753.971926124528</v>
       </c>
       <c r="T45" t="n">
-        <v>1916.554192386068</v>
+        <v>1616.382490768616</v>
       </c>
       <c r="U45" t="n">
-        <v>1731.856026235189</v>
+        <v>1431.684324617737</v>
       </c>
       <c r="V45" t="n">
-        <v>1526.882887374456</v>
+        <v>1226.711185757003</v>
       </c>
       <c r="W45" t="n">
-        <v>1330.361510207673</v>
+        <v>1030.189808590221</v>
       </c>
       <c r="X45" t="n">
-        <v>1166.884163974336</v>
+        <v>866.7124623568835</v>
       </c>
       <c r="Y45" t="n">
-        <v>1027.191275327628</v>
+        <v>727.0195737101759</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.89979663781</v>
+        <v>678.8298165652238</v>
       </c>
       <c r="C46" t="n">
-        <v>844.9272335167258</v>
+        <v>506.8572534441398</v>
       </c>
       <c r="D46" t="n">
-        <v>681.6104606434965</v>
+        <v>343.5404805709105</v>
       </c>
       <c r="E46" t="n">
-        <v>515.40225479635</v>
+        <v>343.5404805709105</v>
       </c>
       <c r="F46" t="n">
         <v>343.5404805709105</v>
@@ -7800,58 +7800,58 @@
         <v>178.1759141195555</v>
       </c>
       <c r="H46" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512612</v>
       </c>
       <c r="I46" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512612</v>
       </c>
       <c r="J46" t="n">
-        <v>83.72089458732202</v>
+        <v>83.72089458732208</v>
       </c>
       <c r="K46" t="n">
-        <v>294.7437714434523</v>
+        <v>164.5836667784798</v>
       </c>
       <c r="L46" t="n">
-        <v>403.0799718966806</v>
+        <v>272.9198672317082</v>
       </c>
       <c r="M46" t="n">
-        <v>926.7147546063661</v>
+        <v>796.5546499413939</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.01779431597</v>
+        <v>1307.890612492879</v>
       </c>
       <c r="O46" t="n">
-        <v>1519.07293747027</v>
+        <v>1786.945755647178</v>
       </c>
       <c r="P46" t="n">
         <v>1915.456417501847</v>
       </c>
       <c r="Q46" t="n">
-        <v>2115.696091756305</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="R46" t="n">
-        <v>2115.696091756305</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="S46" t="n">
-        <v>2115.696091756305</v>
+        <v>1961.1131991728</v>
       </c>
       <c r="T46" t="n">
-        <v>1876.169739705605</v>
+        <v>1721.5868471221</v>
       </c>
       <c r="U46" t="n">
-        <v>1596.033967747059</v>
+        <v>1441.451075163554</v>
       </c>
       <c r="V46" t="n">
-        <v>1596.033967747059</v>
+        <v>1159.739607771583</v>
       </c>
       <c r="W46" t="n">
-        <v>1321.181563919572</v>
+        <v>884.887203944096</v>
       </c>
       <c r="X46" t="n">
-        <v>1243.242564948068</v>
+        <v>868.9957852772895</v>
       </c>
       <c r="Y46" t="n">
-        <v>1016.89979663781</v>
+        <v>868.9957852772895</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>280.8028264648369</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>174.2821191063458</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>216.6251926776597</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>217.3224119322016</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8028264648366</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>150.5878707786572</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,16 +9087,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>142.4314747688939</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>317.1966531816356</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
         <v>381.5174992961649</v>
@@ -9105,7 +9105,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>150.5878707786571</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>280.8028264648365</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,22 +9321,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>142.4314747688937</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>217.3224119322023</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>150.587870778657</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>280.8028264648366</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>413.0100789879922</v>
       </c>
       <c r="N22" t="n">
-        <v>132.8015508858695</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>119.5304718445234</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>150.5878707786568</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>280.8028264648366</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>295.3339973728325</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>274.1685608185711</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4.614291352806777</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9965,13 +9965,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>276.1885351120296</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>280.802826464837</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10032,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>185.1326129858319</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>198.2392765396967</v>
       </c>
       <c r="M28" t="n">
-        <v>413.0100789879922</v>
+        <v>413.0100789879925</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>150.587870778657</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>280.8028264648369</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>143.758172457821</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>413.0100789879924</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>199.5659742286241</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>150.587870778657</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>4.614291352807754</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>276.1885351120292</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,10 +10509,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>142.4314747688931</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>231.0585539204519</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>150.587870778657</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>280.8028264648368</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>45.33675393575815</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>216.6251926776598</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>413.0100789879925</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10761,10 +10761,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>150.587870778657</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>280.8028264648368</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>206.9952687946355</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>413.0100789879923</v>
+        <v>413.0100789879924</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>120.8571695334516</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>150.5878707786568</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>280.8028264648368</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
@@ -11226,19 +11226,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>413.0100789879921</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>120.2276910990663</v>
+        <v>362.7956399701291</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>174.2821191063462</v>
+        <v>150.5878707786568</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11457,22 +11457,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>131.474853196942</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>413.0100789879922</v>
+        <v>413.0100789879923</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>45.33675393575746</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -22798,7 +22798,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1253022837962369</v>
+        <v>0.125302283796259</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23260,13 +23260,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>372.3970119561376</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>398.3261064128874</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.094542823061</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>55.17629682248474</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,10 +23418,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -23433,10 +23433,10 @@
         <v>163.7109207868414</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I13" t="n">
-        <v>13.76261937220988</v>
+        <v>72.20225288674682</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.843788712764116</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>132.1496480454847</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>105.7252104020722</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>398.3261064128874</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.44215023562771</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.094542823061</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>63.11726981688429</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23661,19 +23661,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>12.53707698102497</v>
       </c>
       <c r="G16" t="n">
         <v>163.7109207868414</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.20225288674682</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.0370636576713</v>
       </c>
       <c r="T16" t="n">
-        <v>87.78838047446618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>276.2326654996301</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>280.0572411882682</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.44215023562771</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.094542823061</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.6137950796671</v>
@@ -23794,10 +23794,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>141.8559554024261</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7109207868414</v>
+        <v>42.55762904313995</v>
       </c>
       <c r="H19" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.20225288674682</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>153.0370636576713</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,10 +23977,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.3261064128874</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.094542823061</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6137950796671</v>
+        <v>90.63849377434889</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>45.38953774035315</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>159.1419049423524</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>84.73932986777177</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H22" t="n">
         <v>134.5033723615851</v>
       </c>
       <c r="I22" t="n">
-        <v>72.20225288674682</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>153.0370636576712</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>134.1666206621295</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>398.3261064128874</v>
@@ -24262,16 +24262,16 @@
         <v>210.094542823061</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>290.263230047383</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.1145893000084</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.20225288674682</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>6.843788712764102</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3344142389604</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>59.00960234861193</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3261064128874</v>
+        <v>278.9069363415697</v>
       </c>
       <c r="H26" t="n">
         <v>274.71888335875</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.44215023562772</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0945428230611</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>262.1502252322283</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.7109207868414</v>
+        <v>134.1769636878275</v>
       </c>
       <c r="H28" t="n">
         <v>134.5033723615851</v>
       </c>
       <c r="I28" t="n">
-        <v>72.20225288674683</v>
+        <v>72.20225288674682</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>6.843788712764109</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>151.4078755988102</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -24691,13 +24691,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.4421502356277</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0945428230611</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>296.2867591939104</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>233.7308337247252</v>
       </c>
     </row>
     <row r="30">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>77.89554115500671</v>
       </c>
       <c r="G31" t="n">
         <v>163.7109207868414</v>
@@ -24858,7 +24858,7 @@
         <v>134.5033723615851</v>
       </c>
       <c r="I31" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>6.843788712764109</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>153.0370636576712</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>138.9934367582485</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>92.45506925350776</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H32" t="n">
         <v>274.71888335875</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.44215023562772</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.094542823061</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>27.06621178885041</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.1145893000088</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -25095,7 +25095,7 @@
         <v>134.5033723615851</v>
       </c>
       <c r="I34" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>6.843788712764109</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>162.9398366355092</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>92.45506925350776</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0945428230611</v>
+        <v>210.094542823061</v>
       </c>
       <c r="U35" t="n">
         <v>255.6137950796671</v>
       </c>
       <c r="V35" t="n">
-        <v>6.876622262709702</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>168.6236494310108</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>109.4807719818828</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.20225288674682</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.0370636576712</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>301.268355331232</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.44215023562772</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0945428230611</v>
+        <v>210.094542823061</v>
       </c>
       <c r="U38" t="n">
         <v>255.6137950796671</v>
@@ -25459,7 +25459,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>91.35922709811513</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>187.8740604674528</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.20225288674682</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.843788712764123</v>
+        <v>6.843788712764109</v>
       </c>
       <c r="S40" t="n">
-        <v>153.0370636576713</v>
+        <v>89.79269974024064</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1310885301926</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3344142389604</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25630,19 +25630,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>42.87809037995879</v>
+        <v>336.9118733432614</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I43" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>124.1529000733231</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3344142389604</v>
       </c>
       <c r="V43" t="n">
-        <v>19.51408187238115</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25876,10 +25876,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>379.8848903584694</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3261064128874</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>274.71888335875</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.4421502356277</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>101.7362941048125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.20225288674683</v>
+        <v>72.20225288674682</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.843788712764123</v>
+        <v>6.843788712764102</v>
       </c>
       <c r="S46" t="n">
-        <v>153.0370636576713</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>162.9786486068634</v>
+        <v>224.4057531085145</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>341839.3137812481</v>
+        <v>341839.313781248</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>341839.313781248</v>
+        <v>341839.3137812481</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>341839.313781248</v>
+        <v>341839.3137812481</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>341839.313781248</v>
+        <v>341839.3137812482</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>341839.313781248</v>
+        <v>341839.3137812481</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>341839.3137812481</v>
+        <v>341839.3137812482</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>341839.313781248</v>
+        <v>341839.3137812482</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>341839.313781248</v>
+        <v>341839.3137812481</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>473359.7714790576</v>
       </c>
       <c r="C2" t="n">
-        <v>473360.8875806608</v>
+        <v>473360.887580661</v>
       </c>
       <c r="D2" t="n">
-        <v>473361.6529273576</v>
+        <v>473361.6529273578</v>
       </c>
       <c r="E2" t="n">
-        <v>279586.4656345659</v>
+        <v>279586.4656345657</v>
       </c>
       <c r="F2" t="n">
         <v>279586.4656345659</v>
@@ -26340,7 +26340,7 @@
         <v>279586.4656345659</v>
       </c>
       <c r="K2" t="n">
-        <v>279586.4656345658</v>
+        <v>279586.465634566</v>
       </c>
       <c r="L2" t="n">
         <v>279586.4656345658</v>
@@ -26355,7 +26355,7 @@
         <v>279586.4656345659</v>
       </c>
       <c r="P2" t="n">
-        <v>279586.4656345658</v>
+        <v>279586.4656345659</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36763.52824278933</v>
+        <v>36763.52824278935</v>
       </c>
       <c r="C3" t="n">
-        <v>3849.713455507067</v>
+        <v>3849.713455507073</v>
       </c>
       <c r="D3" t="n">
         <v>2482.778886659001</v>
       </c>
       <c r="E3" t="n">
-        <v>515158.9699399756</v>
+        <v>515158.9699399754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>312767.7001099116</v>
       </c>
       <c r="D4" t="n">
-        <v>311834.7298003431</v>
+        <v>311834.7298003432</v>
       </c>
       <c r="E4" t="n">
         <v>28802.95309500735</v>
@@ -26447,7 +26447,7 @@
         <v>28802.95309500736</v>
       </c>
       <c r="L4" t="n">
-        <v>28802.95309500735</v>
+        <v>28802.95309500736</v>
       </c>
       <c r="M4" t="n">
         <v>28802.95309500736</v>
@@ -26459,7 +26459,7 @@
         <v>28802.95309500735</v>
       </c>
       <c r="P4" t="n">
-        <v>28802.95309500736</v>
+        <v>28802.95309500734</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>34614.67030379765</v>
       </c>
       <c r="E5" t="n">
-        <v>42839.04122415995</v>
+        <v>42839.04122415993</v>
       </c>
       <c r="F5" t="n">
         <v>42839.04122415995</v>
@@ -26487,31 +26487,31 @@
         <v>42839.04122415995</v>
       </c>
       <c r="H5" t="n">
-        <v>42839.04122415995</v>
+        <v>42839.04122415996</v>
       </c>
       <c r="I5" t="n">
-        <v>42839.04122415994</v>
+        <v>42839.04122415996</v>
       </c>
       <c r="J5" t="n">
-        <v>42839.04122415994</v>
+        <v>42839.04122415997</v>
       </c>
       <c r="K5" t="n">
-        <v>42839.04122415994</v>
+        <v>42839.04122415997</v>
       </c>
       <c r="L5" t="n">
-        <v>42839.04122415993</v>
+        <v>42839.04122415997</v>
       </c>
       <c r="M5" t="n">
-        <v>42839.04122415995</v>
+        <v>42839.04122415997</v>
       </c>
       <c r="N5" t="n">
-        <v>42839.04122415995</v>
+        <v>42839.04122415997</v>
       </c>
       <c r="O5" t="n">
-        <v>42839.04122415994</v>
+        <v>42839.04122415996</v>
       </c>
       <c r="P5" t="n">
-        <v>42839.04122415994</v>
+        <v>42839.04122415996</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87952.92870347068</v>
+        <v>87931.24558337942</v>
       </c>
       <c r="C6" t="n">
-        <v>122192.002794749</v>
+        <v>122170.3230567839</v>
       </c>
       <c r="D6" t="n">
-        <v>124429.4739365579</v>
+        <v>124407.7965178251</v>
       </c>
       <c r="E6" t="n">
-        <v>-307214.498624577</v>
+        <v>-307823.3735805607</v>
       </c>
       <c r="F6" t="n">
-        <v>207944.4713153986</v>
+        <v>207335.5963594148</v>
       </c>
       <c r="G6" t="n">
-        <v>207944.4713153986</v>
+        <v>207335.5963594148</v>
       </c>
       <c r="H6" t="n">
-        <v>207944.4713153986</v>
+        <v>207335.5963594149</v>
       </c>
       <c r="I6" t="n">
-        <v>207944.4713153986</v>
+        <v>207335.5963594148</v>
       </c>
       <c r="J6" t="n">
-        <v>207944.4713153986</v>
+        <v>207335.5963594148</v>
       </c>
       <c r="K6" t="n">
-        <v>207944.4713153985</v>
+        <v>207335.5963594149</v>
       </c>
       <c r="L6" t="n">
-        <v>207944.4713153985</v>
+        <v>207335.5963594147</v>
       </c>
       <c r="M6" t="n">
-        <v>76134.489102889</v>
+        <v>75525.61414690525</v>
       </c>
       <c r="N6" t="n">
-        <v>207944.4713153986</v>
+        <v>207335.5963594147</v>
       </c>
       <c r="O6" t="n">
-        <v>207944.4713153986</v>
+        <v>207335.5963594148</v>
       </c>
       <c r="P6" t="n">
-        <v>207944.4713153985</v>
+        <v>207335.5963594148</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>45.27845430264449</v>
       </c>
       <c r="E3" t="n">
-        <v>489.9293866726655</v>
+        <v>489.9293866726654</v>
       </c>
       <c r="F3" t="n">
-        <v>489.9293866726655</v>
+        <v>489.9293866726654</v>
       </c>
       <c r="G3" t="n">
         <v>489.9293866726655</v>
@@ -26758,28 +26758,28 @@
         <v>489.9293866726655</v>
       </c>
       <c r="I3" t="n">
+        <v>489.9293866726656</v>
+      </c>
+      <c r="J3" t="n">
         <v>489.9293866726655</v>
       </c>
-      <c r="J3" t="n">
-        <v>489.9293866726654</v>
-      </c>
       <c r="K3" t="n">
-        <v>489.9293866726654</v>
+        <v>489.9293866726655</v>
       </c>
       <c r="L3" t="n">
-        <v>489.9293866726654</v>
+        <v>489.9293866726655</v>
       </c>
       <c r="M3" t="n">
-        <v>489.9293866726654</v>
+        <v>489.9293866726655</v>
       </c>
       <c r="N3" t="n">
-        <v>489.9293866726654</v>
+        <v>489.9293866726655</v>
       </c>
       <c r="O3" t="n">
-        <v>489.9293866726654</v>
+        <v>489.9293866726656</v>
       </c>
       <c r="P3" t="n">
-        <v>489.9293866726654</v>
+        <v>489.9293866726656</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>528.9240229390764</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="F4" t="n">
         <v>528.9240229390764</v>
@@ -26810,28 +26810,28 @@
         <v>528.9240229390764</v>
       </c>
       <c r="I4" t="n">
-        <v>528.9240229390763</v>
+        <v>528.9240229390765</v>
       </c>
       <c r="J4" t="n">
-        <v>528.9240229390763</v>
+        <v>528.9240229390766</v>
       </c>
       <c r="K4" t="n">
-        <v>528.9240229390763</v>
+        <v>528.9240229390766</v>
       </c>
       <c r="L4" t="n">
-        <v>528.9240229390762</v>
+        <v>528.9240229390766</v>
       </c>
       <c r="M4" t="n">
-        <v>528.9240229390764</v>
+        <v>528.9240229390766</v>
       </c>
       <c r="N4" t="n">
-        <v>528.9240229390764</v>
+        <v>528.9240229390766</v>
       </c>
       <c r="O4" t="n">
-        <v>528.9240229390763</v>
+        <v>528.9240229390765</v>
       </c>
       <c r="P4" t="n">
-        <v>528.9240229390763</v>
+        <v>528.9240229390765</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>38.15175619547406</v>
       </c>
       <c r="C3" t="n">
-        <v>4.22765758861398</v>
+        <v>4.227657588613987</v>
       </c>
       <c r="D3" t="n">
         <v>2.899040518556447</v>
       </c>
       <c r="E3" t="n">
-        <v>444.650932370021</v>
+        <v>444.6509323700209</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>528.9240229390764</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>528.9240229390764</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>528.9240229390764</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27642,13 +27642,13 @@
         <v>14.96006091008002</v>
       </c>
       <c r="K5" t="n">
-        <v>14.09296117214527</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L5" t="n">
         <v>11.42645714324615</v>
       </c>
       <c r="M5" t="n">
-        <v>7.515868967310215</v>
+        <v>7.515868967310212</v>
       </c>
       <c r="N5" t="n">
         <v>6.880166552921242</v>
@@ -27660,7 +27660,7 @@
         <v>13.07601436734049</v>
       </c>
       <c r="Q5" t="n">
-        <v>17.72668497534604</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R5" t="n">
         <v>24.33067662398352</v>
@@ -27721,7 +27721,7 @@
         <v>11.9988978019839</v>
       </c>
       <c r="K6" t="n">
-        <v>7.679584047590231</v>
+        <v>7.679584047590229</v>
       </c>
       <c r="L6" t="n">
         <v>2.722701059689193</v>
@@ -27733,7 +27733,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.483625009529547</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P6" t="n">
         <v>4.364096701700124</v>
@@ -27812,7 +27812,7 @@
         <v>9.054267004656879</v>
       </c>
       <c r="O7" t="n">
-        <v>11.69730019489985</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P7" t="n">
         <v>13.13791998612571</v>
@@ -31284,13 +31284,13 @@
         <v>1.744796669010217</v>
       </c>
       <c r="I5" t="n">
-        <v>6.568170250898711</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J5" t="n">
         <v>14.4598985755065</v>
       </c>
       <c r="K5" t="n">
-        <v>21.67163962266407</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L5" t="n">
         <v>26.88558528937678</v>
@@ -31314,7 +31314,7 @@
         <v>10.70197327081295</v>
       </c>
       <c r="S5" t="n">
-        <v>3.882295041627764</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T5" t="n">
         <v>0.7457924978486244</v>
@@ -31360,7 +31360,7 @@
         <v>0.09115572021483087</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8803723504958667</v>
+        <v>0.8803723504958668</v>
       </c>
       <c r="I6" t="n">
         <v>3.138475454765011</v>
@@ -31381,7 +31381,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>21.68826471269267</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P6" t="n">
         <v>17.40674450312854</v>
@@ -31396,10 +31396,10 @@
         <v>1.693177522411441</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3674215213922348</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U6" t="n">
-        <v>0.005997086856238875</v>
+        <v>0.005997086856238876</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31463,13 +31463,13 @@
         <v>10.80188730352461</v>
       </c>
       <c r="P7" t="n">
-        <v>9.242880671860769</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q7" t="n">
         <v>6.399291481397293</v>
       </c>
       <c r="R7" t="n">
-        <v>3.436206238952448</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S7" t="n">
         <v>1.331825184001586</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.969565373558453</v>
+        <v>1.969565373558452</v>
       </c>
       <c r="H11" t="n">
         <v>20.17081138195551</v>
       </c>
       <c r="I11" t="n">
-        <v>75.93166906411233</v>
+        <v>75.93166906411231</v>
       </c>
       <c r="J11" t="n">
         <v>167.1643991240569</v>
@@ -31785,13 +31785,13 @@
         <v>212.6909027338605</v>
       </c>
       <c r="R11" t="n">
-        <v>123.7207108967913</v>
+        <v>123.7207108967912</v>
       </c>
       <c r="S11" t="n">
-        <v>44.88147094996329</v>
+        <v>44.88147094996328</v>
       </c>
       <c r="T11" t="n">
-        <v>8.621772422752132</v>
+        <v>8.62177242275213</v>
       </c>
       <c r="U11" t="n">
         <v>0.1575652298846762</v>
@@ -31843,7 +31843,7 @@
         <v>99.56197092750838</v>
       </c>
       <c r="K12" t="n">
-        <v>170.1672663125239</v>
+        <v>170.1672663125238</v>
       </c>
       <c r="L12" t="n">
         <v>228.8108895021727</v>
@@ -31861,13 +31861,13 @@
         <v>201.2315626127784</v>
       </c>
       <c r="Q12" t="n">
-        <v>134.5179704690685</v>
+        <v>134.5179704690684</v>
       </c>
       <c r="R12" t="n">
-        <v>65.42868299753071</v>
+        <v>65.4286829975307</v>
       </c>
       <c r="S12" t="n">
-        <v>19.57406559017677</v>
+        <v>19.57406559017676</v>
       </c>
       <c r="T12" t="n">
         <v>4.247595342945089</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8834792218687409</v>
+        <v>0.8834792218687408</v>
       </c>
       <c r="H13" t="n">
-        <v>7.854933445342084</v>
+        <v>7.854933445342083</v>
       </c>
       <c r="I13" t="n">
         <v>26.56862969037996</v>
@@ -31940,7 +31940,7 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.97933738757249</v>
+        <v>73.97933738757247</v>
       </c>
       <c r="R13" t="n">
         <v>39.72443846693447</v>
@@ -31949,10 +31949,10 @@
         <v>15.39663334838523</v>
       </c>
       <c r="T13" t="n">
-        <v>3.774865766166438</v>
+        <v>3.774865766166437</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04818977573829502</v>
+        <v>0.04818977573829501</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.969565373558453</v>
+        <v>1.969565373558452</v>
       </c>
       <c r="H14" t="n">
         <v>20.17081138195551</v>
       </c>
       <c r="I14" t="n">
-        <v>75.93166906411233</v>
+        <v>75.93166906411231</v>
       </c>
       <c r="J14" t="n">
         <v>167.1643991240569</v>
@@ -32022,13 +32022,13 @@
         <v>212.6909027338605</v>
       </c>
       <c r="R14" t="n">
-        <v>123.7207108967913</v>
+        <v>123.7207108967912</v>
       </c>
       <c r="S14" t="n">
-        <v>44.88147094996329</v>
+        <v>44.88147094996328</v>
       </c>
       <c r="T14" t="n">
-        <v>8.621772422752132</v>
+        <v>8.62177242275213</v>
       </c>
       <c r="U14" t="n">
         <v>0.1575652298846762</v>
@@ -32080,7 +32080,7 @@
         <v>99.56197092750838</v>
       </c>
       <c r="K15" t="n">
-        <v>170.1672663125239</v>
+        <v>170.1672663125238</v>
       </c>
       <c r="L15" t="n">
         <v>228.8108895021727</v>
@@ -32098,13 +32098,13 @@
         <v>201.2315626127784</v>
       </c>
       <c r="Q15" t="n">
-        <v>134.5179704690685</v>
+        <v>134.5179704690684</v>
       </c>
       <c r="R15" t="n">
-        <v>65.42868299753071</v>
+        <v>65.4286829975307</v>
       </c>
       <c r="S15" t="n">
-        <v>19.57406559017677</v>
+        <v>19.57406559017676</v>
       </c>
       <c r="T15" t="n">
         <v>4.247595342945089</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8834792218687409</v>
+        <v>0.8834792218687408</v>
       </c>
       <c r="H16" t="n">
-        <v>7.854933445342084</v>
+        <v>7.854933445342083</v>
       </c>
       <c r="I16" t="n">
         <v>26.56862969037996</v>
@@ -32177,7 +32177,7 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.97933738757249</v>
+        <v>73.97933738757247</v>
       </c>
       <c r="R16" t="n">
         <v>39.72443846693447</v>
@@ -32186,10 +32186,10 @@
         <v>15.39663334838523</v>
       </c>
       <c r="T16" t="n">
-        <v>3.774865766166438</v>
+        <v>3.774865766166437</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04818977573829502</v>
+        <v>0.04818977573829501</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32475,13 +32475,13 @@
         <v>167.1643991240569</v>
       </c>
       <c r="K20" t="n">
-        <v>250.5361013867862</v>
+        <v>250.5361013867863</v>
       </c>
       <c r="L20" t="n">
         <v>310.8121876878258</v>
       </c>
       <c r="M20" t="n">
-        <v>345.8384458998459</v>
+        <v>345.838445899846</v>
       </c>
       <c r="N20" t="n">
         <v>351.4344735174689</v>
@@ -32490,7 +32490,7 @@
         <v>331.849607834147</v>
       </c>
       <c r="P20" t="n">
-        <v>283.2259626744226</v>
+        <v>283.2259626744227</v>
       </c>
       <c r="Q20" t="n">
         <v>212.6909027338605</v>
@@ -32548,10 +32548,10 @@
         <v>10.17758971182273</v>
       </c>
       <c r="I21" t="n">
-        <v>36.28250646585306</v>
+        <v>36.28250646585307</v>
       </c>
       <c r="J21" t="n">
-        <v>99.56197092750838</v>
+        <v>99.5619709275084</v>
       </c>
       <c r="K21" t="n">
         <v>170.1672663125239</v>
@@ -32560,13 +32560,13 @@
         <v>228.8108895021727</v>
       </c>
       <c r="M21" t="n">
-        <v>267.0115157366026</v>
+        <v>267.0115157366027</v>
       </c>
       <c r="N21" t="n">
         <v>274.0785160405886</v>
       </c>
       <c r="O21" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927556</v>
       </c>
       <c r="P21" t="n">
         <v>201.2315626127784</v>
@@ -32581,10 +32581,10 @@
         <v>19.57406559017677</v>
       </c>
       <c r="T21" t="n">
-        <v>4.247595342945089</v>
+        <v>4.24759534294509</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06932963018952816</v>
+        <v>0.06932963018952817</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8834792218687409</v>
+        <v>0.8834792218687411</v>
       </c>
       <c r="H22" t="n">
-        <v>7.854933445342084</v>
+        <v>7.854933445342085</v>
       </c>
       <c r="I22" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037997</v>
       </c>
       <c r="J22" t="n">
-        <v>62.46198098611998</v>
+        <v>62.46198098611999</v>
       </c>
       <c r="K22" t="n">
-        <v>102.6442223225682</v>
+        <v>102.6442223225683</v>
       </c>
       <c r="L22" t="n">
-        <v>131.3492654040126</v>
+        <v>131.3492654040127</v>
       </c>
       <c r="M22" t="n">
         <v>138.48938384257</v>
@@ -32651,13 +32651,13 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.97933738757249</v>
+        <v>73.9793373875725</v>
       </c>
       <c r="R22" t="n">
         <v>39.72443846693447</v>
       </c>
       <c r="S22" t="n">
-        <v>15.39663334838523</v>
+        <v>15.39663334838524</v>
       </c>
       <c r="T22" t="n">
         <v>3.774865766166438</v>
@@ -32706,31 +32706,31 @@
         <v>20.17081138195551</v>
       </c>
       <c r="I23" t="n">
-        <v>75.93166906411233</v>
+        <v>75.93166906411234</v>
       </c>
       <c r="J23" t="n">
         <v>167.1643991240569</v>
       </c>
       <c r="K23" t="n">
-        <v>250.5361013867862</v>
+        <v>250.5361013867863</v>
       </c>
       <c r="L23" t="n">
-        <v>310.8121876878258</v>
+        <v>310.8121876878259</v>
       </c>
       <c r="M23" t="n">
-        <v>345.8384458998459</v>
+        <v>345.838445899846</v>
       </c>
       <c r="N23" t="n">
-        <v>351.4344735174689</v>
+        <v>351.434473517469</v>
       </c>
       <c r="O23" t="n">
-        <v>331.849607834147</v>
+        <v>331.8496078341471</v>
       </c>
       <c r="P23" t="n">
-        <v>283.2259626744226</v>
+        <v>283.2259626744227</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.6909027338605</v>
+        <v>212.6909027338606</v>
       </c>
       <c r="R23" t="n">
         <v>123.7207108967913</v>
@@ -32739,7 +32739,7 @@
         <v>44.88147094996329</v>
       </c>
       <c r="T23" t="n">
-        <v>8.621772422752132</v>
+        <v>8.621772422752134</v>
       </c>
       <c r="U23" t="n">
         <v>0.1575652298846762</v>
@@ -32782,46 +32782,46 @@
         <v>1.053810378880828</v>
       </c>
       <c r="H24" t="n">
-        <v>10.17758971182273</v>
+        <v>10.17758971182274</v>
       </c>
       <c r="I24" t="n">
-        <v>36.28250646585306</v>
+        <v>36.28250646585307</v>
       </c>
       <c r="J24" t="n">
-        <v>99.56197092750838</v>
+        <v>99.56197092750841</v>
       </c>
       <c r="K24" t="n">
         <v>170.1672663125239</v>
       </c>
       <c r="L24" t="n">
-        <v>228.8108895021727</v>
+        <v>228.8108895021728</v>
       </c>
       <c r="M24" t="n">
-        <v>267.0115157366026</v>
+        <v>267.0115157366027</v>
       </c>
       <c r="N24" t="n">
-        <v>274.0785160405886</v>
+        <v>274.0785160405887</v>
       </c>
       <c r="O24" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927556</v>
       </c>
       <c r="P24" t="n">
-        <v>201.2315626127784</v>
+        <v>201.2315626127785</v>
       </c>
       <c r="Q24" t="n">
         <v>134.5179704690685</v>
       </c>
       <c r="R24" t="n">
-        <v>65.42868299753071</v>
+        <v>65.42868299753073</v>
       </c>
       <c r="S24" t="n">
         <v>19.57406559017677</v>
       </c>
       <c r="T24" t="n">
-        <v>4.247595342945089</v>
+        <v>4.24759534294509</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06932963018952816</v>
+        <v>0.06932963018952817</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8834792218687409</v>
+        <v>0.8834792218687412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.854933445342084</v>
+        <v>7.854933445342086</v>
       </c>
       <c r="I25" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037997</v>
       </c>
       <c r="J25" t="n">
-        <v>62.46198098611998</v>
+        <v>62.46198098612</v>
       </c>
       <c r="K25" t="n">
-        <v>102.6442223225682</v>
+        <v>102.6442223225683</v>
       </c>
       <c r="L25" t="n">
-        <v>131.3492654040126</v>
+        <v>131.3492654040127</v>
       </c>
       <c r="M25" t="n">
         <v>138.48938384257</v>
@@ -32882,25 +32882,25 @@
         <v>135.1964158337866</v>
       </c>
       <c r="O25" t="n">
-        <v>124.8757721965017</v>
+        <v>124.8757721965018</v>
       </c>
       <c r="P25" t="n">
         <v>106.8527960703793</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.97933738757249</v>
+        <v>73.9793373875725</v>
       </c>
       <c r="R25" t="n">
-        <v>39.72443846693447</v>
+        <v>39.72443846693448</v>
       </c>
       <c r="S25" t="n">
-        <v>15.39663334838523</v>
+        <v>15.39663334838524</v>
       </c>
       <c r="T25" t="n">
         <v>3.774865766166438</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04818977573829502</v>
+        <v>0.04818977573829503</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.969565373558452</v>
+        <v>1.969565373558453</v>
       </c>
       <c r="H26" t="n">
         <v>20.17081138195551</v>
       </c>
       <c r="I26" t="n">
-        <v>75.9316690641123</v>
+        <v>75.93166906411233</v>
       </c>
       <c r="J26" t="n">
-        <v>167.1643991240568</v>
+        <v>167.1643991240569</v>
       </c>
       <c r="K26" t="n">
-        <v>250.5361013867862</v>
+        <v>250.5361013867863</v>
       </c>
       <c r="L26" t="n">
-        <v>310.8121876878257</v>
+        <v>310.8121876878258</v>
       </c>
       <c r="M26" t="n">
-        <v>345.8384458998459</v>
+        <v>345.838445899846</v>
       </c>
       <c r="N26" t="n">
-        <v>351.4344735174688</v>
+        <v>351.4344735174689</v>
       </c>
       <c r="O26" t="n">
-        <v>331.8496078341469</v>
+        <v>331.849607834147</v>
       </c>
       <c r="P26" t="n">
-        <v>283.2259626744226</v>
+        <v>283.2259626744227</v>
       </c>
       <c r="Q26" t="n">
         <v>212.6909027338605</v>
       </c>
       <c r="R26" t="n">
-        <v>123.7207108967912</v>
+        <v>123.7207108967913</v>
       </c>
       <c r="S26" t="n">
-        <v>44.88147094996327</v>
+        <v>44.88147094996329</v>
       </c>
       <c r="T26" t="n">
-        <v>8.621772422752128</v>
+        <v>8.621772422752132</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1575652298846761</v>
+        <v>0.1575652298846762</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,43 +33022,43 @@
         <v>10.17758971182273</v>
       </c>
       <c r="I27" t="n">
-        <v>36.28250646585305</v>
+        <v>36.28250646585307</v>
       </c>
       <c r="J27" t="n">
-        <v>99.56197092750837</v>
+        <v>99.5619709275084</v>
       </c>
       <c r="K27" t="n">
-        <v>170.1672663125238</v>
+        <v>170.1672663125239</v>
       </c>
       <c r="L27" t="n">
         <v>228.8108895021727</v>
       </c>
       <c r="M27" t="n">
-        <v>267.0115157366026</v>
+        <v>267.0115157366027</v>
       </c>
       <c r="N27" t="n">
         <v>274.0785160405886</v>
       </c>
       <c r="O27" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927556</v>
       </c>
       <c r="P27" t="n">
         <v>201.2315626127784</v>
       </c>
       <c r="Q27" t="n">
-        <v>134.5179704690684</v>
+        <v>134.5179704690685</v>
       </c>
       <c r="R27" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753071</v>
       </c>
       <c r="S27" t="n">
-        <v>19.57406559017676</v>
+        <v>19.57406559017677</v>
       </c>
       <c r="T27" t="n">
-        <v>4.247595342945088</v>
+        <v>4.24759534294509</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06932963018952815</v>
+        <v>0.06932963018952817</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687411</v>
       </c>
       <c r="H28" t="n">
-        <v>7.854933445342082</v>
+        <v>7.854933445342085</v>
       </c>
       <c r="I28" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037997</v>
       </c>
       <c r="J28" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098611999</v>
       </c>
       <c r="K28" t="n">
-        <v>102.6442223225682</v>
+        <v>102.6442223225683</v>
       </c>
       <c r="L28" t="n">
-        <v>131.3492654040126</v>
+        <v>131.3492654040127</v>
       </c>
       <c r="M28" t="n">
         <v>138.48938384257</v>
@@ -33125,19 +33125,19 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.97933738757247</v>
+        <v>73.9793373875725</v>
       </c>
       <c r="R28" t="n">
-        <v>39.72443846693446</v>
+        <v>39.72443846693447</v>
       </c>
       <c r="S28" t="n">
-        <v>15.39663334838523</v>
+        <v>15.39663334838524</v>
       </c>
       <c r="T28" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166438</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.04818977573829502</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.969565373558452</v>
+        <v>1.969565373558453</v>
       </c>
       <c r="H29" t="n">
         <v>20.17081138195551</v>
       </c>
       <c r="I29" t="n">
-        <v>75.9316690641123</v>
+        <v>75.93166906411233</v>
       </c>
       <c r="J29" t="n">
-        <v>167.1643991240568</v>
+        <v>167.1643991240569</v>
       </c>
       <c r="K29" t="n">
-        <v>250.5361013867862</v>
+        <v>250.5361013867863</v>
       </c>
       <c r="L29" t="n">
-        <v>310.8121876878257</v>
+        <v>310.8121876878258</v>
       </c>
       <c r="M29" t="n">
-        <v>345.8384458998459</v>
+        <v>345.838445899846</v>
       </c>
       <c r="N29" t="n">
-        <v>351.4344735174688</v>
+        <v>351.4344735174689</v>
       </c>
       <c r="O29" t="n">
-        <v>331.8496078341469</v>
+        <v>331.849607834147</v>
       </c>
       <c r="P29" t="n">
-        <v>283.2259626744226</v>
+        <v>283.2259626744227</v>
       </c>
       <c r="Q29" t="n">
         <v>212.6909027338605</v>
       </c>
       <c r="R29" t="n">
-        <v>123.7207108967912</v>
+        <v>123.7207108967913</v>
       </c>
       <c r="S29" t="n">
-        <v>44.88147094996327</v>
+        <v>44.88147094996329</v>
       </c>
       <c r="T29" t="n">
-        <v>8.621772422752128</v>
+        <v>8.621772422752132</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1575652298846761</v>
+        <v>0.1575652298846762</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,43 +33259,43 @@
         <v>10.17758971182273</v>
       </c>
       <c r="I30" t="n">
-        <v>36.28250646585305</v>
+        <v>36.28250646585307</v>
       </c>
       <c r="J30" t="n">
-        <v>99.56197092750837</v>
+        <v>99.5619709275084</v>
       </c>
       <c r="K30" t="n">
-        <v>170.1672663125238</v>
+        <v>170.1672663125239</v>
       </c>
       <c r="L30" t="n">
         <v>228.8108895021727</v>
       </c>
       <c r="M30" t="n">
-        <v>267.0115157366026</v>
+        <v>267.0115157366027</v>
       </c>
       <c r="N30" t="n">
         <v>274.0785160405886</v>
       </c>
       <c r="O30" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927556</v>
       </c>
       <c r="P30" t="n">
         <v>201.2315626127784</v>
       </c>
       <c r="Q30" t="n">
-        <v>134.5179704690684</v>
+        <v>134.5179704690685</v>
       </c>
       <c r="R30" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753071</v>
       </c>
       <c r="S30" t="n">
-        <v>19.57406559017676</v>
+        <v>19.57406559017677</v>
       </c>
       <c r="T30" t="n">
-        <v>4.247595342945088</v>
+        <v>4.24759534294509</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06932963018952815</v>
+        <v>0.06932963018952817</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.854933445342082</v>
+        <v>7.854933445342085</v>
       </c>
       <c r="I31" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037997</v>
       </c>
       <c r="J31" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098611999</v>
       </c>
       <c r="K31" t="n">
-        <v>102.6442223225682</v>
+        <v>102.6442223225683</v>
       </c>
       <c r="L31" t="n">
-        <v>131.3492654040126</v>
+        <v>131.3492654040127</v>
       </c>
       <c r="M31" t="n">
         <v>138.48938384257</v>
@@ -33362,19 +33362,19 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.97933738757247</v>
+        <v>73.9793373875725</v>
       </c>
       <c r="R31" t="n">
-        <v>39.72443846693446</v>
+        <v>39.72443846693447</v>
       </c>
       <c r="S31" t="n">
-        <v>15.39663334838523</v>
+        <v>15.39663334838524</v>
       </c>
       <c r="T31" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166438</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.04818977573829502</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.969565373558452</v>
+        <v>1.969565373558453</v>
       </c>
       <c r="H32" t="n">
         <v>20.17081138195551</v>
       </c>
       <c r="I32" t="n">
-        <v>75.9316690641123</v>
+        <v>75.93166906411233</v>
       </c>
       <c r="J32" t="n">
-        <v>167.1643991240568</v>
+        <v>167.1643991240569</v>
       </c>
       <c r="K32" t="n">
-        <v>250.5361013867862</v>
+        <v>250.5361013867863</v>
       </c>
       <c r="L32" t="n">
-        <v>310.8121876878257</v>
+        <v>310.8121876878258</v>
       </c>
       <c r="M32" t="n">
-        <v>345.8384458998459</v>
+        <v>345.838445899846</v>
       </c>
       <c r="N32" t="n">
-        <v>351.4344735174688</v>
+        <v>351.4344735174689</v>
       </c>
       <c r="O32" t="n">
-        <v>331.8496078341469</v>
+        <v>331.849607834147</v>
       </c>
       <c r="P32" t="n">
-        <v>283.2259626744226</v>
+        <v>283.2259626744227</v>
       </c>
       <c r="Q32" t="n">
         <v>212.6909027338605</v>
       </c>
       <c r="R32" t="n">
-        <v>123.7207108967912</v>
+        <v>123.7207108967913</v>
       </c>
       <c r="S32" t="n">
-        <v>44.88147094996327</v>
+        <v>44.88147094996329</v>
       </c>
       <c r="T32" t="n">
-        <v>8.621772422752128</v>
+        <v>8.621772422752132</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1575652298846761</v>
+        <v>0.1575652298846762</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,43 +33496,43 @@
         <v>10.17758971182273</v>
       </c>
       <c r="I33" t="n">
-        <v>36.28250646585305</v>
+        <v>36.28250646585307</v>
       </c>
       <c r="J33" t="n">
-        <v>99.56197092750837</v>
+        <v>99.5619709275084</v>
       </c>
       <c r="K33" t="n">
-        <v>170.1672663125238</v>
+        <v>170.1672663125239</v>
       </c>
       <c r="L33" t="n">
         <v>228.8108895021727</v>
       </c>
       <c r="M33" t="n">
-        <v>267.0115157366026</v>
+        <v>267.0115157366027</v>
       </c>
       <c r="N33" t="n">
         <v>274.0785160405886</v>
       </c>
       <c r="O33" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927556</v>
       </c>
       <c r="P33" t="n">
         <v>201.2315626127784</v>
       </c>
       <c r="Q33" t="n">
-        <v>134.5179704690684</v>
+        <v>134.5179704690685</v>
       </c>
       <c r="R33" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753071</v>
       </c>
       <c r="S33" t="n">
-        <v>19.57406559017676</v>
+        <v>19.57406559017677</v>
       </c>
       <c r="T33" t="n">
-        <v>4.247595342945088</v>
+        <v>4.24759534294509</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06932963018952815</v>
+        <v>0.06932963018952817</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687411</v>
       </c>
       <c r="H34" t="n">
-        <v>7.854933445342082</v>
+        <v>7.854933445342085</v>
       </c>
       <c r="I34" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037997</v>
       </c>
       <c r="J34" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098611999</v>
       </c>
       <c r="K34" t="n">
-        <v>102.6442223225682</v>
+        <v>102.6442223225683</v>
       </c>
       <c r="L34" t="n">
-        <v>131.3492654040126</v>
+        <v>131.3492654040127</v>
       </c>
       <c r="M34" t="n">
         <v>138.48938384257</v>
@@ -33599,19 +33599,19 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.97933738757247</v>
+        <v>73.9793373875725</v>
       </c>
       <c r="R34" t="n">
-        <v>39.72443846693446</v>
+        <v>39.72443846693447</v>
       </c>
       <c r="S34" t="n">
-        <v>15.39663334838523</v>
+        <v>15.39663334838524</v>
       </c>
       <c r="T34" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166438</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.04818977573829502</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.969565373558452</v>
+        <v>1.969565373558453</v>
       </c>
       <c r="H35" t="n">
         <v>20.17081138195551</v>
       </c>
       <c r="I35" t="n">
-        <v>75.9316690641123</v>
+        <v>75.93166906411233</v>
       </c>
       <c r="J35" t="n">
-        <v>167.1643991240568</v>
+        <v>167.1643991240569</v>
       </c>
       <c r="K35" t="n">
-        <v>250.5361013867862</v>
+        <v>250.5361013867863</v>
       </c>
       <c r="L35" t="n">
-        <v>310.8121876878257</v>
+        <v>310.8121876878258</v>
       </c>
       <c r="M35" t="n">
-        <v>345.8384458998459</v>
+        <v>345.838445899846</v>
       </c>
       <c r="N35" t="n">
-        <v>351.4344735174688</v>
+        <v>351.4344735174689</v>
       </c>
       <c r="O35" t="n">
-        <v>331.8496078341469</v>
+        <v>331.849607834147</v>
       </c>
       <c r="P35" t="n">
-        <v>283.2259626744226</v>
+        <v>283.2259626744227</v>
       </c>
       <c r="Q35" t="n">
         <v>212.6909027338605</v>
       </c>
       <c r="R35" t="n">
-        <v>123.7207108967912</v>
+        <v>123.7207108967913</v>
       </c>
       <c r="S35" t="n">
-        <v>44.88147094996327</v>
+        <v>44.88147094996329</v>
       </c>
       <c r="T35" t="n">
-        <v>8.621772422752128</v>
+        <v>8.621772422752132</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1575652298846761</v>
+        <v>0.1575652298846762</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,43 +33733,43 @@
         <v>10.17758971182273</v>
       </c>
       <c r="I36" t="n">
-        <v>36.28250646585305</v>
+        <v>36.28250646585307</v>
       </c>
       <c r="J36" t="n">
-        <v>99.56197092750837</v>
+        <v>99.5619709275084</v>
       </c>
       <c r="K36" t="n">
-        <v>170.1672663125238</v>
+        <v>170.1672663125239</v>
       </c>
       <c r="L36" t="n">
         <v>228.8108895021727</v>
       </c>
       <c r="M36" t="n">
-        <v>267.0115157366026</v>
+        <v>267.0115157366027</v>
       </c>
       <c r="N36" t="n">
         <v>274.0785160405886</v>
       </c>
       <c r="O36" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927556</v>
       </c>
       <c r="P36" t="n">
         <v>201.2315626127784</v>
       </c>
       <c r="Q36" t="n">
-        <v>134.5179704690684</v>
+        <v>134.5179704690685</v>
       </c>
       <c r="R36" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753071</v>
       </c>
       <c r="S36" t="n">
-        <v>19.57406559017676</v>
+        <v>19.57406559017677</v>
       </c>
       <c r="T36" t="n">
-        <v>4.247595342945088</v>
+        <v>4.24759534294509</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06932963018952815</v>
+        <v>0.06932963018952817</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687411</v>
       </c>
       <c r="H37" t="n">
-        <v>7.854933445342082</v>
+        <v>7.854933445342085</v>
       </c>
       <c r="I37" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037997</v>
       </c>
       <c r="J37" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098611999</v>
       </c>
       <c r="K37" t="n">
-        <v>102.6442223225682</v>
+        <v>102.6442223225683</v>
       </c>
       <c r="L37" t="n">
-        <v>131.3492654040126</v>
+        <v>131.3492654040127</v>
       </c>
       <c r="M37" t="n">
         <v>138.48938384257</v>
@@ -33836,19 +33836,19 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.97933738757247</v>
+        <v>73.9793373875725</v>
       </c>
       <c r="R37" t="n">
-        <v>39.72443846693446</v>
+        <v>39.72443846693447</v>
       </c>
       <c r="S37" t="n">
-        <v>15.39663334838523</v>
+        <v>15.39663334838524</v>
       </c>
       <c r="T37" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166438</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.04818977573829502</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.969565373558452</v>
+        <v>1.969565373558453</v>
       </c>
       <c r="H38" t="n">
         <v>20.17081138195551</v>
       </c>
       <c r="I38" t="n">
-        <v>75.9316690641123</v>
+        <v>75.93166906411233</v>
       </c>
       <c r="J38" t="n">
-        <v>167.1643991240568</v>
+        <v>167.1643991240569</v>
       </c>
       <c r="K38" t="n">
-        <v>250.5361013867862</v>
+        <v>250.5361013867863</v>
       </c>
       <c r="L38" t="n">
-        <v>310.8121876878257</v>
+        <v>310.8121876878258</v>
       </c>
       <c r="M38" t="n">
-        <v>345.8384458998459</v>
+        <v>345.838445899846</v>
       </c>
       <c r="N38" t="n">
-        <v>351.4344735174688</v>
+        <v>351.4344735174689</v>
       </c>
       <c r="O38" t="n">
-        <v>331.8496078341469</v>
+        <v>331.849607834147</v>
       </c>
       <c r="P38" t="n">
-        <v>283.2259626744226</v>
+        <v>283.2259626744227</v>
       </c>
       <c r="Q38" t="n">
         <v>212.6909027338605</v>
       </c>
       <c r="R38" t="n">
-        <v>123.7207108967912</v>
+        <v>123.7207108967913</v>
       </c>
       <c r="S38" t="n">
-        <v>44.88147094996327</v>
+        <v>44.88147094996329</v>
       </c>
       <c r="T38" t="n">
-        <v>8.621772422752128</v>
+        <v>8.621772422752132</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1575652298846761</v>
+        <v>0.1575652298846762</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,43 +33970,43 @@
         <v>10.17758971182273</v>
       </c>
       <c r="I39" t="n">
-        <v>36.28250646585305</v>
+        <v>36.28250646585307</v>
       </c>
       <c r="J39" t="n">
-        <v>99.56197092750837</v>
+        <v>99.5619709275084</v>
       </c>
       <c r="K39" t="n">
-        <v>170.1672663125238</v>
+        <v>170.1672663125239</v>
       </c>
       <c r="L39" t="n">
         <v>228.8108895021727</v>
       </c>
       <c r="M39" t="n">
-        <v>267.0115157366026</v>
+        <v>267.0115157366027</v>
       </c>
       <c r="N39" t="n">
         <v>274.0785160405886</v>
       </c>
       <c r="O39" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927556</v>
       </c>
       <c r="P39" t="n">
         <v>201.2315626127784</v>
       </c>
       <c r="Q39" t="n">
-        <v>134.5179704690684</v>
+        <v>134.5179704690685</v>
       </c>
       <c r="R39" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753071</v>
       </c>
       <c r="S39" t="n">
-        <v>19.57406559017676</v>
+        <v>19.57406559017677</v>
       </c>
       <c r="T39" t="n">
-        <v>4.247595342945088</v>
+        <v>4.24759534294509</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06932963018952815</v>
+        <v>0.06932963018952817</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687411</v>
       </c>
       <c r="H40" t="n">
-        <v>7.854933445342082</v>
+        <v>7.854933445342085</v>
       </c>
       <c r="I40" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037997</v>
       </c>
       <c r="J40" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098611999</v>
       </c>
       <c r="K40" t="n">
-        <v>102.6442223225682</v>
+        <v>102.6442223225683</v>
       </c>
       <c r="L40" t="n">
-        <v>131.3492654040126</v>
+        <v>131.3492654040127</v>
       </c>
       <c r="M40" t="n">
         <v>138.48938384257</v>
@@ -34073,19 +34073,19 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.97933738757247</v>
+        <v>73.9793373875725</v>
       </c>
       <c r="R40" t="n">
-        <v>39.72443846693446</v>
+        <v>39.72443846693447</v>
       </c>
       <c r="S40" t="n">
-        <v>15.39663334838523</v>
+        <v>15.39663334838524</v>
       </c>
       <c r="T40" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166438</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.04818977573829502</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.969565373558452</v>
+        <v>1.969565373558453</v>
       </c>
       <c r="H41" t="n">
         <v>20.17081138195551</v>
       </c>
       <c r="I41" t="n">
-        <v>75.9316690641123</v>
+        <v>75.93166906411234</v>
       </c>
       <c r="J41" t="n">
-        <v>167.1643991240568</v>
+        <v>167.1643991240569</v>
       </c>
       <c r="K41" t="n">
-        <v>250.5361013867862</v>
+        <v>250.5361013867863</v>
       </c>
       <c r="L41" t="n">
-        <v>310.8121876878257</v>
+        <v>310.8121876878259</v>
       </c>
       <c r="M41" t="n">
-        <v>345.8384458998459</v>
+        <v>345.838445899846</v>
       </c>
       <c r="N41" t="n">
-        <v>351.4344735174688</v>
+        <v>351.434473517469</v>
       </c>
       <c r="O41" t="n">
-        <v>331.8496078341469</v>
+        <v>331.8496078341471</v>
       </c>
       <c r="P41" t="n">
-        <v>283.2259626744226</v>
+        <v>283.2259626744227</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.6909027338605</v>
+        <v>212.6909027338606</v>
       </c>
       <c r="R41" t="n">
-        <v>123.7207108967912</v>
+        <v>123.7207108967913</v>
       </c>
       <c r="S41" t="n">
-        <v>44.88147094996327</v>
+        <v>44.88147094996329</v>
       </c>
       <c r="T41" t="n">
-        <v>8.621772422752128</v>
+        <v>8.621772422752134</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1575652298846761</v>
+        <v>0.1575652298846762</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.053810378880828</v>
       </c>
       <c r="H42" t="n">
-        <v>10.17758971182273</v>
+        <v>10.17758971182274</v>
       </c>
       <c r="I42" t="n">
-        <v>36.28250646585305</v>
+        <v>36.28250646585307</v>
       </c>
       <c r="J42" t="n">
-        <v>99.56197092750837</v>
+        <v>99.56197092750841</v>
       </c>
       <c r="K42" t="n">
-        <v>170.1672663125238</v>
+        <v>170.1672663125239</v>
       </c>
       <c r="L42" t="n">
-        <v>228.8108895021727</v>
+        <v>228.8108895021728</v>
       </c>
       <c r="M42" t="n">
-        <v>267.0115157366026</v>
+        <v>267.0115157366027</v>
       </c>
       <c r="N42" t="n">
-        <v>274.0785160405886</v>
+        <v>274.0785160405887</v>
       </c>
       <c r="O42" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927556</v>
       </c>
       <c r="P42" t="n">
-        <v>201.2315626127784</v>
+        <v>201.2315626127785</v>
       </c>
       <c r="Q42" t="n">
-        <v>134.5179704690684</v>
+        <v>134.5179704690685</v>
       </c>
       <c r="R42" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753073</v>
       </c>
       <c r="S42" t="n">
-        <v>19.57406559017676</v>
+        <v>19.57406559017677</v>
       </c>
       <c r="T42" t="n">
-        <v>4.247595342945088</v>
+        <v>4.24759534294509</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06932963018952815</v>
+        <v>0.06932963018952817</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687412</v>
       </c>
       <c r="H43" t="n">
-        <v>7.854933445342082</v>
+        <v>7.854933445342086</v>
       </c>
       <c r="I43" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037997</v>
       </c>
       <c r="J43" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098612</v>
       </c>
       <c r="K43" t="n">
-        <v>102.6442223225682</v>
+        <v>102.6442223225683</v>
       </c>
       <c r="L43" t="n">
-        <v>131.3492654040126</v>
+        <v>131.3492654040127</v>
       </c>
       <c r="M43" t="n">
         <v>138.48938384257</v>
@@ -34304,25 +34304,25 @@
         <v>135.1964158337866</v>
       </c>
       <c r="O43" t="n">
-        <v>124.8757721965017</v>
+        <v>124.8757721965018</v>
       </c>
       <c r="P43" t="n">
         <v>106.8527960703793</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.97933738757247</v>
+        <v>73.9793373875725</v>
       </c>
       <c r="R43" t="n">
-        <v>39.72443846693446</v>
+        <v>39.72443846693448</v>
       </c>
       <c r="S43" t="n">
-        <v>15.39663334838523</v>
+        <v>15.39663334838524</v>
       </c>
       <c r="T43" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166438</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.04818977573829503</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.969565373558452</v>
+        <v>1.969565373558453</v>
       </c>
       <c r="H44" t="n">
         <v>20.17081138195551</v>
       </c>
       <c r="I44" t="n">
-        <v>75.9316690641123</v>
+        <v>75.93166906411234</v>
       </c>
       <c r="J44" t="n">
         <v>167.1643991240568</v>
       </c>
       <c r="K44" t="n">
-        <v>250.5361013867865</v>
+        <v>250.5361013867863</v>
       </c>
       <c r="L44" t="n">
-        <v>310.8121876878257</v>
+        <v>310.8121876878259</v>
       </c>
       <c r="M44" t="n">
-        <v>345.8384458998459</v>
+        <v>345.838445899846</v>
       </c>
       <c r="N44" t="n">
-        <v>351.4344735174688</v>
+        <v>351.434473517469</v>
       </c>
       <c r="O44" t="n">
-        <v>331.8496078341469</v>
+        <v>331.8496078341471</v>
       </c>
       <c r="P44" t="n">
-        <v>283.2259626744226</v>
+        <v>283.2259626744227</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.6909027338605</v>
+        <v>212.6909027338606</v>
       </c>
       <c r="R44" t="n">
-        <v>123.7207108967912</v>
+        <v>123.7207108967913</v>
       </c>
       <c r="S44" t="n">
-        <v>44.88147094996327</v>
+        <v>44.88147094996329</v>
       </c>
       <c r="T44" t="n">
-        <v>8.621772422752128</v>
+        <v>8.621772422752134</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1575652298846761</v>
+        <v>0.1575652298846762</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.053810378880828</v>
       </c>
       <c r="H45" t="n">
-        <v>10.17758971182273</v>
+        <v>10.17758971182274</v>
       </c>
       <c r="I45" t="n">
-        <v>36.28250646585305</v>
+        <v>36.28250646585307</v>
       </c>
       <c r="J45" t="n">
-        <v>99.56197092750837</v>
+        <v>99.56197092750841</v>
       </c>
       <c r="K45" t="n">
-        <v>170.1672663125238</v>
+        <v>170.1672663125239</v>
       </c>
       <c r="L45" t="n">
-        <v>228.8108895021727</v>
+        <v>228.8108895021728</v>
       </c>
       <c r="M45" t="n">
-        <v>267.0115157366026</v>
+        <v>267.0115157366027</v>
       </c>
       <c r="N45" t="n">
-        <v>274.0785160405886</v>
+        <v>274.0785160405887</v>
       </c>
       <c r="O45" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927556</v>
       </c>
       <c r="P45" t="n">
-        <v>201.2315626127784</v>
+        <v>201.2315626127785</v>
       </c>
       <c r="Q45" t="n">
-        <v>134.5179704690684</v>
+        <v>134.5179704690685</v>
       </c>
       <c r="R45" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753073</v>
       </c>
       <c r="S45" t="n">
-        <v>19.57406559017676</v>
+        <v>19.57406559017677</v>
       </c>
       <c r="T45" t="n">
-        <v>4.247595342945088</v>
+        <v>4.24759534294509</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06932963018952815</v>
+        <v>0.06932963018952817</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687412</v>
       </c>
       <c r="H46" t="n">
-        <v>7.854933445342082</v>
+        <v>7.854933445342086</v>
       </c>
       <c r="I46" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037997</v>
       </c>
       <c r="J46" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098612</v>
       </c>
       <c r="K46" t="n">
-        <v>102.6442223225682</v>
+        <v>102.6442223225683</v>
       </c>
       <c r="L46" t="n">
-        <v>131.3492654040126</v>
+        <v>131.3492654040127</v>
       </c>
       <c r="M46" t="n">
         <v>138.48938384257</v>
@@ -34541,25 +34541,25 @@
         <v>135.1964158337866</v>
       </c>
       <c r="O46" t="n">
-        <v>124.8757721965017</v>
+        <v>124.8757721965018</v>
       </c>
       <c r="P46" t="n">
         <v>106.8527960703793</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.97933738757247</v>
+        <v>73.9793373875725</v>
       </c>
       <c r="R46" t="n">
-        <v>39.72443846693446</v>
+        <v>39.72443846693448</v>
       </c>
       <c r="S46" t="n">
-        <v>15.39663334838523</v>
+        <v>15.39663334838524</v>
       </c>
       <c r="T46" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166438</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.04818977573829503</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.38376652014882</v>
+        <v>41.38376652014881</v>
       </c>
       <c r="J11" t="n">
         <v>137.7444396384703</v>
@@ -35418,7 +35418,7 @@
         <v>272.5001452552028</v>
       </c>
       <c r="M11" t="n">
-        <v>308.4071830004141</v>
+        <v>308.407183000414</v>
       </c>
       <c r="N11" t="n">
         <v>314.1548506830229</v>
@@ -35488,31 +35488,31 @@
         <v>20.11011971585306</v>
       </c>
       <c r="J12" t="n">
-        <v>78.95085659417505</v>
+        <v>359.7536830590119</v>
       </c>
       <c r="K12" t="n">
         <v>147.7680324791905</v>
       </c>
       <c r="L12" t="n">
-        <v>206.2958027879432</v>
+        <v>206.2958027879431</v>
       </c>
       <c r="M12" t="n">
-        <v>418.1968543306205</v>
+        <v>243.9147352242747</v>
       </c>
       <c r="N12" t="n">
-        <v>252.735487827047</v>
+        <v>252.7354878270469</v>
       </c>
       <c r="O12" t="n">
         <v>227.5564068705333</v>
       </c>
       <c r="P12" t="n">
-        <v>179.4607214079498</v>
+        <v>179.4607214079497</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.77093218009</v>
+        <v>111.7709321800899</v>
       </c>
       <c r="R12" t="n">
-        <v>148.2764709618773</v>
+        <v>41.75576360338655</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>120.5340296973907</v>
       </c>
       <c r="K13" t="n">
-        <v>81.67956786985624</v>
+        <v>331.4599811163432</v>
       </c>
       <c r="L13" t="n">
-        <v>109.4305055083114</v>
+        <v>489.6213071155488</v>
       </c>
       <c r="M13" t="n">
-        <v>332.5391366287438</v>
+        <v>115.9139439510841</v>
       </c>
       <c r="N13" t="n">
-        <v>516.5009722742268</v>
+        <v>114.4475148581862</v>
       </c>
       <c r="O13" t="n">
-        <v>483.8940839942422</v>
+        <v>319.6989966302789</v>
       </c>
       <c r="P13" t="n">
         <v>400.387353567249</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.35977462278754</v>
+        <v>202.2622972267259</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.38376652014882</v>
+        <v>41.38376652014881</v>
       </c>
       <c r="J14" t="n">
         <v>137.7444396384703</v>
@@ -35655,7 +35655,7 @@
         <v>272.5001452552028</v>
       </c>
       <c r="M14" t="n">
-        <v>308.4071830004141</v>
+        <v>308.407183000414</v>
       </c>
       <c r="N14" t="n">
         <v>314.1548506830229</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.11011971585306</v>
+        <v>43.80436804354179</v>
       </c>
       <c r="J15" t="n">
         <v>78.95085659417505</v>
       </c>
       <c r="K15" t="n">
-        <v>428.5708589440271</v>
+        <v>147.7680324791905</v>
       </c>
       <c r="L15" t="n">
-        <v>206.2958027879432</v>
+        <v>206.2958027879431</v>
       </c>
       <c r="M15" t="n">
         <v>243.9147352242747</v>
       </c>
       <c r="N15" t="n">
-        <v>252.735487827047</v>
+        <v>252.7354878270469</v>
       </c>
       <c r="O15" t="n">
         <v>227.5564068705333</v>
       </c>
       <c r="P15" t="n">
-        <v>179.4607214079498</v>
+        <v>179.4607214079497</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.77093218009</v>
+        <v>262.3588029587471</v>
       </c>
       <c r="R15" t="n">
-        <v>41.75576360338657</v>
+        <v>148.2764709618773</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.82522500221812</v>
+        <v>41.8252250022181</v>
       </c>
       <c r="K16" t="n">
-        <v>81.67956786985624</v>
+        <v>224.1110426387501</v>
       </c>
       <c r="L16" t="n">
-        <v>489.6213071155488</v>
+        <v>109.4305055083114</v>
       </c>
       <c r="M16" t="n">
-        <v>115.9139439510842</v>
+        <v>115.9139439510841</v>
       </c>
       <c r="N16" t="n">
-        <v>431.6441680398217</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O16" t="n">
         <v>483.8940839942422</v>
@@ -35825,7 +35825,7 @@
         <v>400.387353567249</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.35977462278754</v>
+        <v>202.2622972267259</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.11011971585306</v>
+        <v>43.80436804354179</v>
       </c>
       <c r="J18" t="n">
-        <v>78.95085659417505</v>
+        <v>229.5387273728321</v>
       </c>
       <c r="K18" t="n">
         <v>147.7680324791905</v>
       </c>
       <c r="L18" t="n">
-        <v>487.0986292527796</v>
+        <v>206.2958027879432</v>
       </c>
       <c r="M18" t="n">
         <v>243.9147352242747</v>
@@ -35986,7 +35986,7 @@
         <v>111.77093218009</v>
       </c>
       <c r="R18" t="n">
-        <v>41.75576360338657</v>
+        <v>148.2764709618773</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.82522500221812</v>
+        <v>120.5340296973907</v>
       </c>
       <c r="K19" t="n">
-        <v>224.1110426387499</v>
+        <v>331.4599811163432</v>
       </c>
       <c r="L19" t="n">
-        <v>109.4305055083114</v>
+        <v>489.6213071155488</v>
       </c>
       <c r="M19" t="n">
         <v>115.9139439510842</v>
       </c>
       <c r="N19" t="n">
-        <v>516.5009722742268</v>
+        <v>114.4475148581862</v>
       </c>
       <c r="O19" t="n">
-        <v>483.8940839942422</v>
+        <v>319.6989966302796</v>
       </c>
       <c r="P19" t="n">
         <v>400.387353567249</v>
@@ -36120,13 +36120,13 @@
         <v>41.38376652014882</v>
       </c>
       <c r="J20" t="n">
-        <v>137.7444396384703</v>
+        <v>137.7444396384704</v>
       </c>
       <c r="K20" t="n">
         <v>214.7715005919769</v>
       </c>
       <c r="L20" t="n">
-        <v>272.5001452552028</v>
+        <v>272.5001452552029</v>
       </c>
       <c r="M20" t="n">
         <v>308.4071830004141</v>
@@ -36138,13 +36138,13 @@
         <v>294.4586484781229</v>
       </c>
       <c r="P20" t="n">
-        <v>245.6506008641913</v>
+        <v>245.6506008641914</v>
       </c>
       <c r="Q20" t="n">
         <v>176.5662281292625</v>
       </c>
       <c r="R20" t="n">
-        <v>88.68806100199478</v>
+        <v>88.68806100199481</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.11011971585306</v>
+        <v>43.8043680435418</v>
       </c>
       <c r="J21" t="n">
-        <v>78.95085659417505</v>
+        <v>229.5387273728321</v>
       </c>
       <c r="K21" t="n">
         <v>147.7680324791905</v>
@@ -36208,7 +36208,7 @@
         <v>206.2958027879432</v>
       </c>
       <c r="M21" t="n">
-        <v>524.7175616891112</v>
+        <v>243.9147352242747</v>
       </c>
       <c r="N21" t="n">
         <v>252.735487827047</v>
@@ -36223,7 +36223,7 @@
         <v>111.77093218009</v>
       </c>
       <c r="R21" t="n">
-        <v>41.75576360338657</v>
+        <v>148.2764709618773</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>41.82522500221812</v>
+        <v>120.5340296973907</v>
       </c>
       <c r="K22" t="n">
-        <v>81.67956786985624</v>
+        <v>81.67956786985626</v>
       </c>
       <c r="L22" t="n">
-        <v>489.6213071155488</v>
+        <v>109.4305055083115</v>
       </c>
       <c r="M22" t="n">
         <v>528.9240229390764</v>
       </c>
       <c r="N22" t="n">
-        <v>247.2490657440557</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O22" t="n">
-        <v>102.3765846980773</v>
+        <v>483.8940839942422</v>
       </c>
       <c r="P22" t="n">
-        <v>400.387353567249</v>
+        <v>84.47199541239284</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.262297226726</v>
+        <v>168.8902464673109</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.38376652014882</v>
+        <v>41.38376652014884</v>
       </c>
       <c r="J23" t="n">
-        <v>137.7444396384703</v>
+        <v>137.7444396384704</v>
       </c>
       <c r="K23" t="n">
-        <v>214.7715005919769</v>
+        <v>214.771500591977</v>
       </c>
       <c r="L23" t="n">
-        <v>272.5001452552028</v>
+        <v>272.5001452552029</v>
       </c>
       <c r="M23" t="n">
         <v>308.4071830004141</v>
       </c>
       <c r="N23" t="n">
-        <v>314.1548506830229</v>
+        <v>314.154850683023</v>
       </c>
       <c r="O23" t="n">
-        <v>294.4586484781229</v>
+        <v>294.458648478123</v>
       </c>
       <c r="P23" t="n">
-        <v>245.6506008641913</v>
+        <v>245.6506008641914</v>
       </c>
       <c r="Q23" t="n">
         <v>176.5662281292625</v>
       </c>
       <c r="R23" t="n">
-        <v>88.68806100199478</v>
+        <v>88.68806100199481</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.11011971585306</v>
+        <v>43.8043680435418</v>
       </c>
       <c r="J24" t="n">
-        <v>78.95085659417505</v>
+        <v>229.5387273728319</v>
       </c>
       <c r="K24" t="n">
         <v>147.7680324791905</v>
@@ -36451,16 +36451,16 @@
         <v>252.735487827047</v>
       </c>
       <c r="O24" t="n">
-        <v>227.5564068705333</v>
+        <v>227.5564068705334</v>
       </c>
       <c r="P24" t="n">
         <v>179.4607214079498</v>
       </c>
       <c r="Q24" t="n">
-        <v>392.5737586449266</v>
+        <v>111.77093218009</v>
       </c>
       <c r="R24" t="n">
-        <v>41.75576360338657</v>
+        <v>148.2764709618773</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.82522500221812</v>
+        <v>41.82522500221813</v>
       </c>
       <c r="K25" t="n">
-        <v>331.4599811163432</v>
+        <v>81.67956786985627</v>
       </c>
       <c r="L25" t="n">
-        <v>109.4305055083114</v>
+        <v>109.4305055083115</v>
       </c>
       <c r="M25" t="n">
-        <v>115.9139439510842</v>
+        <v>411.2479413239167</v>
       </c>
       <c r="N25" t="n">
         <v>516.5009722742268</v>
       </c>
       <c r="O25" t="n">
-        <v>376.5451455166484</v>
+        <v>483.8940839942422</v>
       </c>
       <c r="P25" t="n">
         <v>400.387353567249</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.262297226726</v>
+        <v>49.35977462278755</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.3837665201488</v>
+        <v>41.38376652014882</v>
       </c>
       <c r="J26" t="n">
-        <v>137.7444396384703</v>
+        <v>137.744439638471</v>
       </c>
       <c r="K26" t="n">
         <v>214.7715005919769</v>
       </c>
       <c r="L26" t="n">
-        <v>272.5001452552028</v>
+        <v>272.5001452552029</v>
       </c>
       <c r="M26" t="n">
-        <v>308.407183000414</v>
+        <v>308.4071830004141</v>
       </c>
       <c r="N26" t="n">
-        <v>314.1548506830228</v>
+        <v>314.1548506830229</v>
       </c>
       <c r="O26" t="n">
-        <v>294.4586484781228</v>
+        <v>294.4586484781229</v>
       </c>
       <c r="P26" t="n">
-        <v>245.6506008641913</v>
+        <v>245.6506008641914</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.5662281292624</v>
+        <v>176.5662281292625</v>
       </c>
       <c r="R26" t="n">
-        <v>88.68806100199475</v>
+        <v>88.68806100199481</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.11011971585305</v>
+        <v>24.72441106865984</v>
       </c>
       <c r="J27" t="n">
-        <v>78.95085659417504</v>
+        <v>78.95085659417506</v>
       </c>
       <c r="K27" t="n">
         <v>147.7680324791905</v>
       </c>
       <c r="L27" t="n">
-        <v>206.2958027879431</v>
+        <v>206.2958027879432</v>
       </c>
       <c r="M27" t="n">
-        <v>243.9147352242746</v>
+        <v>243.9147352242747</v>
       </c>
       <c r="N27" t="n">
-        <v>252.7354878270469</v>
+        <v>528.9240229390766</v>
       </c>
       <c r="O27" t="n">
-        <v>227.5564068705332</v>
+        <v>227.5564068705333</v>
       </c>
       <c r="P27" t="n">
-        <v>460.2635478727867</v>
+        <v>179.4607214079498</v>
       </c>
       <c r="Q27" t="n">
-        <v>111.7709321800899</v>
+        <v>111.77093218009</v>
       </c>
       <c r="R27" t="n">
-        <v>41.75576360338655</v>
+        <v>41.75576360338657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5340296973907</v>
+        <v>41.82522500221812</v>
       </c>
       <c r="K28" t="n">
-        <v>266.8121808556881</v>
+        <v>81.67956786985626</v>
       </c>
       <c r="L28" t="n">
-        <v>109.4305055083114</v>
+        <v>307.6697820480082</v>
       </c>
       <c r="M28" t="n">
-        <v>528.9240229390763</v>
+        <v>528.9240229390766</v>
       </c>
       <c r="N28" t="n">
         <v>516.5009722742268</v>
       </c>
       <c r="O28" t="n">
-        <v>102.3765846980773</v>
+        <v>483.8940839942422</v>
       </c>
       <c r="P28" t="n">
-        <v>400.387353567249</v>
+        <v>84.47199541239284</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.35977462278753</v>
+        <v>49.35977462278755</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.3837665201488</v>
+        <v>41.38376652014882</v>
       </c>
       <c r="J29" t="n">
-        <v>137.7444396384703</v>
+        <v>137.7444396384704</v>
       </c>
       <c r="K29" t="n">
         <v>214.7715005919769</v>
       </c>
       <c r="L29" t="n">
-        <v>272.5001452552028</v>
+        <v>272.5001452552029</v>
       </c>
       <c r="M29" t="n">
-        <v>308.407183000414</v>
+        <v>308.4071830004141</v>
       </c>
       <c r="N29" t="n">
-        <v>314.1548506830232</v>
+        <v>314.1548506830229</v>
       </c>
       <c r="O29" t="n">
-        <v>294.4586484781228</v>
+        <v>294.4586484781229</v>
       </c>
       <c r="P29" t="n">
-        <v>245.6506008641913</v>
+        <v>245.6506008641914</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.5662281292624</v>
+        <v>176.5662281292625</v>
       </c>
       <c r="R29" t="n">
-        <v>88.68806100199475</v>
+        <v>88.68806100199481</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.11011971585305</v>
+        <v>43.8043680435418</v>
       </c>
       <c r="J30" t="n">
-        <v>78.95085659417504</v>
+        <v>229.5387273728321</v>
       </c>
       <c r="K30" t="n">
         <v>147.7680324791905</v>
       </c>
       <c r="L30" t="n">
-        <v>206.2958027879431</v>
+        <v>206.2958027879432</v>
       </c>
       <c r="M30" t="n">
-        <v>524.7175616891116</v>
+        <v>243.9147352242747</v>
       </c>
       <c r="N30" t="n">
-        <v>252.7354878270469</v>
+        <v>252.735487827047</v>
       </c>
       <c r="O30" t="n">
-        <v>227.5564068705332</v>
+        <v>227.5564068705333</v>
       </c>
       <c r="P30" t="n">
-        <v>179.4607214079497</v>
+        <v>179.4607214079498</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.7709321800899</v>
+        <v>111.77093218009</v>
       </c>
       <c r="R30" t="n">
-        <v>41.75576360338655</v>
+        <v>148.2764709618773</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>41.8252250022181</v>
+        <v>41.82522500221812</v>
       </c>
       <c r="K31" t="n">
-        <v>225.4377403276772</v>
+        <v>81.67956786985626</v>
       </c>
       <c r="L31" t="n">
-        <v>489.6213071155487</v>
+        <v>489.6213071155488</v>
       </c>
       <c r="M31" t="n">
-        <v>115.9139439510841</v>
+        <v>528.9240229390766</v>
       </c>
       <c r="N31" t="n">
         <v>516.5009722742268</v>
       </c>
       <c r="O31" t="n">
-        <v>102.3765846980773</v>
+        <v>301.9425589267014</v>
       </c>
       <c r="P31" t="n">
-        <v>400.387353567249</v>
+        <v>84.47199541239284</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.2622972267259</v>
+        <v>49.35977462278755</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.3837665201488</v>
+        <v>41.38376652014882</v>
       </c>
       <c r="J32" t="n">
-        <v>137.7444396384703</v>
+        <v>137.7444396384704</v>
       </c>
       <c r="K32" t="n">
         <v>214.7715005919769</v>
       </c>
       <c r="L32" t="n">
-        <v>272.5001452552028</v>
+        <v>272.5001452552029</v>
       </c>
       <c r="M32" t="n">
-        <v>308.407183000414</v>
+        <v>308.4071830004148</v>
       </c>
       <c r="N32" t="n">
-        <v>314.1548506830228</v>
+        <v>314.1548506830229</v>
       </c>
       <c r="O32" t="n">
-        <v>294.4586484781228</v>
+        <v>294.4586484781229</v>
       </c>
       <c r="P32" t="n">
-        <v>245.6506008641913</v>
+        <v>245.6506008641914</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.5662281292624</v>
+        <v>176.5662281292625</v>
       </c>
       <c r="R32" t="n">
-        <v>88.68806100199475</v>
+        <v>88.68806100199481</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.11011971585305</v>
+        <v>43.8043680435418</v>
       </c>
       <c r="J33" t="n">
-        <v>78.95085659417504</v>
+        <v>229.5387273728321</v>
       </c>
       <c r="K33" t="n">
         <v>147.7680324791905</v>
       </c>
       <c r="L33" t="n">
-        <v>210.9100941407509</v>
+        <v>206.2958027879432</v>
       </c>
       <c r="M33" t="n">
-        <v>243.9147352242746</v>
+        <v>243.9147352242747</v>
       </c>
       <c r="N33" t="n">
-        <v>528.9240229390762</v>
+        <v>252.735487827047</v>
       </c>
       <c r="O33" t="n">
-        <v>227.5564068705332</v>
+        <v>227.5564068705333</v>
       </c>
       <c r="P33" t="n">
-        <v>179.4607214079497</v>
+        <v>179.4607214079498</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.7709321800899</v>
+        <v>111.77093218009</v>
       </c>
       <c r="R33" t="n">
-        <v>41.75576360338655</v>
+        <v>148.2764709618773</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.8252250022181</v>
+        <v>41.82522500221812</v>
       </c>
       <c r="K34" t="n">
-        <v>224.1110426387493</v>
+        <v>81.67956786985626</v>
       </c>
       <c r="L34" t="n">
-        <v>109.4305055083114</v>
+        <v>489.6213071155488</v>
       </c>
       <c r="M34" t="n">
-        <v>115.9139439510841</v>
+        <v>115.9139439510842</v>
       </c>
       <c r="N34" t="n">
         <v>516.5009722742268</v>
@@ -37244,10 +37244,10 @@
         <v>483.8940839942422</v>
       </c>
       <c r="P34" t="n">
-        <v>400.387353567249</v>
+        <v>315.5305493328448</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.2622972267259</v>
+        <v>49.35977462278755</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.3837665201488</v>
+        <v>41.38376652014882</v>
       </c>
       <c r="J35" t="n">
-        <v>137.7444396384703</v>
+        <v>137.7444396384704</v>
       </c>
       <c r="K35" t="n">
         <v>214.7715005919769</v>
       </c>
       <c r="L35" t="n">
-        <v>272.5001452552028</v>
+        <v>272.5001452552029</v>
       </c>
       <c r="M35" t="n">
-        <v>308.407183000414</v>
+        <v>308.4071830004141</v>
       </c>
       <c r="N35" t="n">
-        <v>314.1548506830228</v>
+        <v>314.1548506830229</v>
       </c>
       <c r="O35" t="n">
-        <v>294.4586484781228</v>
+        <v>294.4586484781229</v>
       </c>
       <c r="P35" t="n">
-        <v>245.6506008641913</v>
+        <v>245.6506008641914</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.5662281292624</v>
+        <v>176.5662281292625</v>
       </c>
       <c r="R35" t="n">
-        <v>88.68806100199475</v>
+        <v>88.68806100199481</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.11011971585305</v>
+        <v>43.8043680435418</v>
       </c>
       <c r="J36" t="n">
-        <v>78.95085659417504</v>
+        <v>229.5387273728321</v>
       </c>
       <c r="K36" t="n">
         <v>147.7680324791905</v>
       </c>
       <c r="L36" t="n">
-        <v>206.2958027879431</v>
+        <v>206.2958027879432</v>
       </c>
       <c r="M36" t="n">
-        <v>243.9147352242746</v>
+        <v>243.9147352242747</v>
       </c>
       <c r="N36" t="n">
-        <v>252.7354878270469</v>
+        <v>252.735487827047</v>
       </c>
       <c r="O36" t="n">
-        <v>227.5564068705332</v>
+        <v>227.5564068705333</v>
       </c>
       <c r="P36" t="n">
-        <v>179.4607214079497</v>
+        <v>179.4607214079498</v>
       </c>
       <c r="Q36" t="n">
-        <v>392.5737586449268</v>
+        <v>111.77093218009</v>
       </c>
       <c r="R36" t="n">
-        <v>41.75576360338655</v>
+        <v>148.2764709618773</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>120.5340296973907</v>
+        <v>87.16197893797627</v>
       </c>
       <c r="K37" t="n">
-        <v>81.67956786985623</v>
+        <v>81.67956786985626</v>
       </c>
       <c r="L37" t="n">
-        <v>326.0556981859712</v>
+        <v>109.4305055083115</v>
       </c>
       <c r="M37" t="n">
-        <v>115.9139439510841</v>
+        <v>528.9240229390766</v>
       </c>
       <c r="N37" t="n">
         <v>516.5009722742268</v>
@@ -37481,10 +37481,10 @@
         <v>483.8940839942422</v>
       </c>
       <c r="P37" t="n">
-        <v>400.387353567249</v>
+        <v>84.47199541239284</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.35977462278753</v>
+        <v>202.262297226726</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.3837665201488</v>
+        <v>41.38376652014882</v>
       </c>
       <c r="J38" t="n">
-        <v>137.7444396384703</v>
+        <v>137.7444396384704</v>
       </c>
       <c r="K38" t="n">
         <v>214.7715005919769</v>
       </c>
       <c r="L38" t="n">
-        <v>272.5001452552028</v>
+        <v>272.5001452552029</v>
       </c>
       <c r="M38" t="n">
-        <v>308.407183000414</v>
+        <v>308.4071830004141</v>
       </c>
       <c r="N38" t="n">
-        <v>314.1548506830228</v>
+        <v>314.1548506830229</v>
       </c>
       <c r="O38" t="n">
-        <v>294.4586484781228</v>
+        <v>294.4586484781229</v>
       </c>
       <c r="P38" t="n">
-        <v>245.6506008641913</v>
+        <v>245.6506008641914</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.5662281292624</v>
+        <v>176.5662281292625</v>
       </c>
       <c r="R38" t="n">
-        <v>88.68806100199475</v>
+        <v>88.68806100199481</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.11011971585305</v>
+        <v>43.8043680435418</v>
       </c>
       <c r="J39" t="n">
-        <v>78.95085659417504</v>
+        <v>229.5387273728321</v>
       </c>
       <c r="K39" t="n">
         <v>147.7680324791905</v>
       </c>
       <c r="L39" t="n">
-        <v>206.2958027879431</v>
+        <v>206.2958027879432</v>
       </c>
       <c r="M39" t="n">
-        <v>243.9147352242746</v>
+        <v>243.9147352242747</v>
       </c>
       <c r="N39" t="n">
-        <v>252.7354878270469</v>
+        <v>252.735487827047</v>
       </c>
       <c r="O39" t="n">
-        <v>508.35923333537</v>
+        <v>227.5564068705333</v>
       </c>
       <c r="P39" t="n">
-        <v>179.4607214079497</v>
+        <v>179.4607214079498</v>
       </c>
       <c r="Q39" t="n">
-        <v>111.7709321800899</v>
+        <v>111.77093218009</v>
       </c>
       <c r="R39" t="n">
-        <v>41.75576360338655</v>
+        <v>148.2764709618773</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>120.5340296973907</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6748366644917</v>
+        <v>81.67956786985626</v>
       </c>
       <c r="L40" t="n">
-        <v>489.6213071155487</v>
+        <v>489.6213071155488</v>
       </c>
       <c r="M40" t="n">
-        <v>528.9240229390764</v>
+        <v>528.9240229390766</v>
       </c>
       <c r="N40" t="n">
-        <v>114.4475148581862</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O40" t="n">
-        <v>102.3765846980773</v>
+        <v>223.2337542315288</v>
       </c>
       <c r="P40" t="n">
-        <v>400.387353567249</v>
+        <v>84.47199541239284</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.35977462278753</v>
+        <v>49.35977462278755</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.3837665201488</v>
+        <v>41.38376652014884</v>
       </c>
       <c r="J41" t="n">
-        <v>137.7444396384703</v>
+        <v>137.7444396384704</v>
       </c>
       <c r="K41" t="n">
-        <v>214.7715005919769</v>
+        <v>214.771500591977</v>
       </c>
       <c r="L41" t="n">
-        <v>272.5001452552028</v>
+        <v>272.5001452552029</v>
       </c>
       <c r="M41" t="n">
-        <v>308.407183000414</v>
+        <v>308.4071830004141</v>
       </c>
       <c r="N41" t="n">
-        <v>314.1548506830228</v>
+        <v>314.154850683023</v>
       </c>
       <c r="O41" t="n">
-        <v>294.4586484781228</v>
+        <v>294.458648478123</v>
       </c>
       <c r="P41" t="n">
-        <v>245.6506008641913</v>
+        <v>245.6506008641914</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.5662281292624</v>
+        <v>176.5662281292625</v>
       </c>
       <c r="R41" t="n">
-        <v>88.68806100199475</v>
+        <v>88.68806100199481</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.11011971585305</v>
+        <v>43.8043680435418</v>
       </c>
       <c r="J42" t="n">
-        <v>78.95085659417504</v>
+        <v>229.5387273728319</v>
       </c>
       <c r="K42" t="n">
         <v>147.7680324791905</v>
       </c>
       <c r="L42" t="n">
-        <v>206.2958027879431</v>
+        <v>206.2958027879432</v>
       </c>
       <c r="M42" t="n">
-        <v>243.9147352242746</v>
+        <v>243.9147352242747</v>
       </c>
       <c r="N42" t="n">
-        <v>252.7354878270469</v>
+        <v>252.735487827047</v>
       </c>
       <c r="O42" t="n">
-        <v>227.5564068705332</v>
+        <v>227.5564068705334</v>
       </c>
       <c r="P42" t="n">
-        <v>179.4607214079497</v>
+        <v>179.4607214079498</v>
       </c>
       <c r="Q42" t="n">
-        <v>392.5737586449268</v>
+        <v>111.77093218009</v>
       </c>
       <c r="R42" t="n">
-        <v>41.75576360338655</v>
+        <v>148.2764709618773</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>120.5340296973907</v>
+        <v>41.82522500221813</v>
       </c>
       <c r="K43" t="n">
         <v>331.4599811163432</v>
       </c>
       <c r="L43" t="n">
-        <v>489.6213071155487</v>
+        <v>489.6213071155488</v>
       </c>
       <c r="M43" t="n">
-        <v>528.9240229390763</v>
+        <v>115.9139439510842</v>
       </c>
       <c r="N43" t="n">
-        <v>114.4475148581862</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O43" t="n">
-        <v>222.6042757971435</v>
+        <v>465.1722246682064</v>
       </c>
       <c r="P43" t="n">
-        <v>84.47199541239281</v>
+        <v>84.47199541239286</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.2622972267259</v>
+        <v>49.35977462278755</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.3837665201488</v>
+        <v>41.38376652014884</v>
       </c>
       <c r="J44" t="n">
         <v>137.7444396384703</v>
       </c>
       <c r="K44" t="n">
-        <v>214.7715005919772</v>
+        <v>214.771500591977</v>
       </c>
       <c r="L44" t="n">
-        <v>272.5001452552028</v>
+        <v>272.5001452552029</v>
       </c>
       <c r="M44" t="n">
-        <v>308.407183000414</v>
+        <v>308.4071830004141</v>
       </c>
       <c r="N44" t="n">
-        <v>314.1548506830228</v>
+        <v>314.154850683023</v>
       </c>
       <c r="O44" t="n">
-        <v>294.4586484781228</v>
+        <v>294.458648478123</v>
       </c>
       <c r="P44" t="n">
-        <v>245.6506008641913</v>
+        <v>245.6506008641914</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.5662281292624</v>
+        <v>176.5662281292625</v>
       </c>
       <c r="R44" t="n">
-        <v>88.68806100199475</v>
+        <v>88.68806100199481</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.11011971585305</v>
+        <v>43.8043680435418</v>
       </c>
       <c r="J45" t="n">
-        <v>253.2329757005213</v>
+        <v>229.5387273728319</v>
       </c>
       <c r="K45" t="n">
         <v>147.7680324791905</v>
       </c>
       <c r="L45" t="n">
-        <v>206.2958027879431</v>
+        <v>206.2958027879432</v>
       </c>
       <c r="M45" t="n">
-        <v>243.9147352242746</v>
+        <v>243.9147352242747</v>
       </c>
       <c r="N45" t="n">
-        <v>252.7354878270469</v>
+        <v>252.735487827047</v>
       </c>
       <c r="O45" t="n">
-        <v>227.5564068705332</v>
+        <v>227.5564068705334</v>
       </c>
       <c r="P45" t="n">
-        <v>179.4607214079497</v>
+        <v>179.4607214079498</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.7709321800899</v>
+        <v>111.77093218009</v>
       </c>
       <c r="R45" t="n">
         <v>148.2764709618773</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>41.8252250022181</v>
+        <v>41.82522500221813</v>
       </c>
       <c r="K46" t="n">
-        <v>213.1544210667983</v>
+        <v>81.67956786985627</v>
       </c>
       <c r="L46" t="n">
-        <v>109.4305055083114</v>
+        <v>109.4305055083115</v>
       </c>
       <c r="M46" t="n">
-        <v>528.9240229390763</v>
+        <v>528.9240229390765</v>
       </c>
       <c r="N46" t="n">
-        <v>114.4475148581862</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O46" t="n">
         <v>483.8940839942422</v>
       </c>
       <c r="P46" t="n">
-        <v>400.387353567249</v>
+        <v>129.8087493481503</v>
       </c>
       <c r="Q46" t="n">
-        <v>202.2622972267259</v>
+        <v>202.262297226726</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
